--- a/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -1745,6 +1745,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1789,24 +1807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1934,8 +1934,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>99498</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585273</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>46186</xdr:rowOff>
     </xdr:to>
@@ -3368,14 +3368,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="169"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -3413,14 +3413,14 @@
       <c r="A6" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="172" t="s">
+      <c r="C6" s="177"/>
+      <c r="D6" s="178" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="172" t="s">
+      <c r="E6" s="178" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3428,12 +3428,12 @@
       <c r="A7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="170">
+      <c r="B7" s="176">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -3448,12 +3448,12 @@
       <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="167"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -4910,10 +4910,10 @@
       <c r="A6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="181"/>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
@@ -4930,17 +4930,17 @@
       <c r="A8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="174"/>
+      <c r="C9" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4998,32 +4998,32 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177" t="s">
+      <c r="G5" s="183"/>
+      <c r="H5" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="177"/>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="178" t="s">
+      <c r="A6" s="182"/>
+      <c r="B6" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="178"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="118" t="s">
         <v>166</v>
       </c>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="167"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -5668,17 +5668,17 @@
       <c r="A6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="186"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="172"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -5691,10 +5691,10 @@
       <c r="A9" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="166"/>
+      <c r="C9" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6067,17 +6067,17 @@
       <c r="A4" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="172"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="172"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7063,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7590,12 +7590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7619,18 +7620,24 @@
         <v>1.0571276433896242</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>74548 - 64246</f>
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>30.9</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
         <f>12.7*0.292</f>
         <v>3.7083999999999997</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
         <f>D70/D69</f>
         <v>0.12001294498381877</v>
@@ -7811,7 +7818,7 @@
       <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="166">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -8120,7 +8127,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -8239,19 +8246,19 @@
       <c r="D8" s="97">
         <v>2360173025</v>
       </c>
-      <c r="E8" s="182">
+      <c r="E8" s="167">
         <v>12</v>
       </c>
       <c r="F8" s="97">
         <v>1686205583</v>
       </c>
-      <c r="G8" s="182">
+      <c r="G8" s="167">
         <v>5</v>
       </c>
       <c r="H8" s="97">
         <v>322495895</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J8" s="87"/>
@@ -8267,19 +8274,19 @@
       <c r="D9" s="97">
         <v>242581914</v>
       </c>
-      <c r="E9" s="182">
+      <c r="E9" s="167">
         <v>12</v>
       </c>
       <c r="F9" s="97">
         <v>193646563</v>
       </c>
-      <c r="G9" s="182">
+      <c r="G9" s="167">
         <v>6</v>
       </c>
       <c r="H9" s="97">
         <v>33140102</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J9" s="87"/>
@@ -8295,19 +8302,19 @@
       <c r="D10" s="97">
         <v>911037989</v>
       </c>
-      <c r="E10" s="182">
+      <c r="E10" s="167">
         <v>12</v>
       </c>
       <c r="F10" s="97">
         <v>798467699</v>
       </c>
-      <c r="G10" s="182">
+      <c r="G10" s="167">
         <v>7</v>
       </c>
       <c r="H10" s="97">
         <v>124436925</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J10" s="87"/>
@@ -8323,19 +8330,19 @@
       <c r="D11" s="97">
         <v>78277759</v>
       </c>
-      <c r="E11" s="182">
+      <c r="E11" s="167">
         <v>12</v>
       </c>
       <c r="F11" s="97">
         <v>74310480</v>
       </c>
-      <c r="G11" s="182">
+      <c r="G11" s="167">
         <v>8</v>
       </c>
       <c r="H11" s="97">
         <v>10689831</v>
       </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J11" s="87"/>
@@ -8351,19 +8358,19 @@
       <c r="D12" s="97">
         <v>-114027863</v>
       </c>
-      <c r="E12" s="182">
+      <c r="E12" s="167">
         <v>12</v>
       </c>
       <c r="F12" s="97">
         <v>-115997337</v>
       </c>
-      <c r="G12" s="182">
+      <c r="G12" s="167">
         <v>9</v>
       </c>
       <c r="H12" s="97">
         <v>-15569166</v>
       </c>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="87"/>
@@ -8379,19 +8386,19 @@
       <c r="D13" s="97">
         <v>-206952282</v>
       </c>
-      <c r="E13" s="182">
+      <c r="E13" s="167">
         <v>12</v>
       </c>
       <c r="F13" s="97">
         <v>-223639296</v>
       </c>
-      <c r="G13" s="182">
+      <c r="G13" s="167">
         <v>10</v>
       </c>
       <c r="H13" s="97">
         <v>-28251967</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J13" s="87"/>
@@ -8407,19 +8414,19 @@
       <c r="D14" s="97">
         <v>2586581023</v>
       </c>
-      <c r="E14" s="182">
+      <c r="E14" s="167">
         <v>12</v>
       </c>
       <c r="F14" s="97">
         <v>2774108147</v>
       </c>
-      <c r="G14" s="182">
+      <c r="G14" s="167">
         <v>11</v>
       </c>
       <c r="H14" s="97">
         <v>352993141</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="168" t="s">
         <v>135</v>
       </c>
       <c r="J14" s="87"/>
@@ -8435,19 +8442,19 @@
       <c r="D15" s="97">
         <v>1983860720</v>
       </c>
-      <c r="E15" s="182">
+      <c r="E15" s="167">
         <v>12</v>
       </c>
-      <c r="F15" s="185">
+      <c r="F15" s="170">
         <v>1983860720</v>
       </c>
-      <c r="G15" s="182">
+      <c r="G15" s="167">
         <v>12</v>
       </c>
-      <c r="H15" s="184">
+      <c r="H15" s="169">
         <v>270613120</v>
       </c>
-      <c r="I15" s="186" t="s">
+      <c r="I15" s="171" t="s">
         <v>135</v>
       </c>
       <c r="J15" s="87"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="6" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <sheet name="Death_decAct" sheetId="35" r:id="rId19"/>
     <sheet name="Death_decRet" sheetId="5" r:id="rId20"/>
     <sheet name="Fiscal" sheetId="28" r:id="rId21"/>
-    <sheet name="Options" sheetId="36" r:id="rId22"/>
+    <sheet name="Fiscal2" sheetId="38" r:id="rId22"/>
+    <sheet name="Options" sheetId="36" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,8 +45,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yimeng Yin</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{881E9041-033B-41E5-A027-0C334017A03A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yimeng Yin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAFR 2014 page n144
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="240">
   <si>
     <t>Notes</t>
   </si>
@@ -1056,12 +1092,61 @@
   <si>
     <t>Historical Growth</t>
   </si>
+  <si>
+    <t>salary 2016</t>
+  </si>
+  <si>
+    <t>ERC rate</t>
+  </si>
+  <si>
+    <t>recommended budget to TSERS and judicial</t>
+  </si>
+  <si>
+    <t>State contribution as a % of total employer contribution</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>contractually required Contribution</t>
+  </si>
+  <si>
+    <t>covered payroll</t>
+  </si>
+  <si>
+    <t>contribution by primary gov</t>
+  </si>
+  <si>
+    <t>FY2016</t>
+  </si>
+  <si>
+    <t>primary/ADC</t>
+  </si>
+  <si>
+    <t>primary/contractual</t>
+  </si>
+  <si>
+    <t>FY2015</t>
+  </si>
+  <si>
+    <t>FY2014</t>
+  </si>
+  <si>
+    <t>FY2013</t>
+  </si>
+  <si>
+    <t>FY2012</t>
+  </si>
+  <si>
+    <t>FY2011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -1069,8 +1154,9 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,6 +1264,26 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1288,11 +1394,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,10 +1916,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1876,6 +1988,99 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608520</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>141497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72DB813-8E20-47BF-BED4-CCB3F5699549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="2266950"/>
+          <a:ext cx="8638095" cy="11019047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>122783</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>141421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25198179-40F0-4BFA-ACCE-632971DEA3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="2228850"/>
+          <a:ext cx="8333333" cy="11628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7063,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF45" sqref="AF44:AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7405,10 +7610,212 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C99D9F3-22E5-4607-87E2-460BBA5892B4}">
+  <dimension ref="B2:H80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="187">
+        <v>1210904</v>
+      </c>
+      <c r="D4">
+        <v>1262988</v>
+      </c>
+      <c r="E4">
+        <v>1177341</v>
+      </c>
+      <c r="F4">
+        <v>1078783</v>
+      </c>
+      <c r="G4">
+        <v>1015762</v>
+      </c>
+      <c r="H4">
+        <v>926429</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="187">
+        <v>1275003</v>
+      </c>
+      <c r="D5">
+        <v>1262988</v>
+      </c>
+      <c r="E5">
+        <v>1177341</v>
+      </c>
+      <c r="F5">
+        <v>1078783</v>
+      </c>
+      <c r="G5">
+        <v>1015762</v>
+      </c>
+      <c r="H5">
+        <v>680670</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="187">
+        <v>13934459</v>
+      </c>
+      <c r="D6">
+        <v>13803148</v>
+      </c>
+      <c r="E6">
+        <v>13548227</v>
+      </c>
+      <c r="F6">
+        <v>13451164</v>
+      </c>
+      <c r="G6">
+        <v>13652715</v>
+      </c>
+      <c r="H6">
+        <v>13806691</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="187">
+        <v>303031</v>
+      </c>
+      <c r="D7">
+        <v>320093</v>
+      </c>
+      <c r="E7">
+        <v>284461</v>
+      </c>
+      <c r="F7">
+        <v>276182</v>
+      </c>
+      <c r="G7">
+        <v>242962</v>
+      </c>
+      <c r="H7">
+        <v>165721</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="188">
+        <f>C7/C4</f>
+        <v>0.25025187793582315</v>
+      </c>
+      <c r="D9" s="188">
+        <f>D7/D4</f>
+        <v>0.25344104615404106</v>
+      </c>
+      <c r="E9" s="188">
+        <f t="shared" ref="E9:H9" si="0">E7/E4</f>
+        <v>0.24161309255347432</v>
+      </c>
+      <c r="F9" s="188">
+        <f t="shared" si="0"/>
+        <v>0.25601256230400365</v>
+      </c>
+      <c r="G9" s="188">
+        <f t="shared" si="0"/>
+        <v>0.23919185793522499</v>
+      </c>
+      <c r="H9" s="188">
+        <f t="shared" si="0"/>
+        <v>0.17888149010879409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="188">
+        <f>C7/C5</f>
+        <v>0.23767081332357648</v>
+      </c>
+      <c r="D10" s="188">
+        <f>D7/D5</f>
+        <v>0.25344104615404106</v>
+      </c>
+      <c r="E10" s="188">
+        <f t="shared" ref="E10:H10" si="1">E7/E5</f>
+        <v>0.24161309255347432</v>
+      </c>
+      <c r="F10" s="188">
+        <f t="shared" si="1"/>
+        <v>0.25601256230400365</v>
+      </c>
+      <c r="G10" s="188">
+        <f t="shared" si="1"/>
+        <v>0.23919185793522499</v>
+      </c>
+      <c r="H10" s="188">
+        <f t="shared" si="1"/>
+        <v>0.24346746587920726</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>680/926</f>
+        <v>0.73434125269978401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B3:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
@@ -7588,10 +7995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7620,27 +8027,33 @@
         <v>1.0571276433896242</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F66">
         <f>74548 - 64246</f>
         <v>10302</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>14282</v>
+      </c>
+      <c r="C69">
+        <v>0.10780000000000001</v>
+      </c>
       <c r="D69">
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70">
-        <f>12.7*0.292</f>
-        <v>3.7083999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71">
-        <f>D70/D69</f>
-        <v>0.12001294498381877</v>
+        <f>B69*C69*1.035</f>
+        <v>1593.4855859999998</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_NCTSERS\Data_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_NCTSERS\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -51,12 +51,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yimeng Yin</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2032,6 +2032,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2077,7 +2078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -9770,7 +9770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9980,36 +9980,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Tier.param'!A1" display="Tier.param"/>
-    <hyperlink ref="B3" location="'Overview'!A1" display="Overview"/>
-    <hyperlink ref="B4" location="'FundingPolicy'!A1" display="FundingPolicy"/>
-    <hyperlink ref="B5" location="'Assumptions'!A1" display="Assumptions"/>
-    <hyperlink ref="B6" location="'SalaryGrowth'!A1" display="SalaryGrowth"/>
-    <hyperlink ref="B7" location="'Init_amort'!A1" display="Init_amort"/>
-    <hyperlink ref="B8" location="'Init_unrecReturn'!A1" display="Init_unrecReturn"/>
-    <hyperlink ref="B9" location="'External_Fund'!A1" display="External_Fund"/>
-    <hyperlink ref="B10" location="'Ret_sum'!A1" display="Ret_sum"/>
-    <hyperlink ref="B11" location="'Ret_dec'!A1" display="Ret_dec"/>
-    <hyperlink ref="B12" location="'Ret_bfactor'!A1" display="Ret_bfactor"/>
-    <hyperlink ref="B13" location="'Term_sum'!A1" display="Term_sum"/>
-    <hyperlink ref="B14" location="'Term_dec1'!A1" display="Term_dec1"/>
-    <hyperlink ref="B15" location="'Term_dec2'!A1" display="Term_dec2"/>
-    <hyperlink ref="B16" location="'Disb_sum'!A1" display="Disb_sum"/>
-    <hyperlink ref="B17" location="'Disb_dec'!A1" display="Disb_dec"/>
-    <hyperlink ref="B18" location="'Death_sum'!A1" display="Death_sum"/>
-    <hyperlink ref="B19" location="'Death_dec'!A1" display="Death_dec"/>
-    <hyperlink ref="B20" location="'DROP cashflow'!A1" display="DROP cashflow"/>
-    <hyperlink ref="B21" location="'GASB_cashflow'!A1" display="GASB_cashflow"/>
-    <hyperlink ref="B22" location="'Fiscal'!A1" display="Fiscal"/>
-    <hyperlink ref="B23" location="'Fiscal2'!A1" display="Fiscal2"/>
-    <hyperlink ref="B24" location="'Fiscal3'!A1" display="Fiscal3"/>
+    <hyperlink ref="B2" location="'Tier.param'!A1" display="Tier.param" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Overview'!A1" display="Overview" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'FundingPolicy'!A1" display="FundingPolicy" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Assumptions'!A1" display="Assumptions" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="'SalaryGrowth'!A1" display="SalaryGrowth" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="'Init_amort'!A1" display="Init_amort" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="'Init_unrecReturn'!A1" display="Init_unrecReturn" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="'External_Fund'!A1" display="External_Fund" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="'Ret_sum'!A1" display="Ret_sum" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="'Ret_dec'!A1" display="Ret_dec" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="'Ret_bfactor'!A1" display="Ret_bfactor" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="'Term_sum'!A1" display="Term_sum" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="'Term_dec1'!A1" display="Term_dec1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="'Term_dec2'!A1" display="Term_dec2" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="'Disb_sum'!A1" display="Disb_sum" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="'Disb_dec'!A1" display="Disb_dec" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" location="'Death_sum'!A1" display="Death_sum" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" location="'Death_dec'!A1" display="Death_dec" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" location="'DROP cashflow'!A1" display="DROP cashflow" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" location="'GASB_cashflow'!A1" display="GASB_cashflow" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" location="'Fiscal'!A1" display="Fiscal" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" location="'Fiscal2'!A1" display="Fiscal2" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" location="'Fiscal3'!A1" display="Fiscal3" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -10222,31 +10222,31 @@
         <v>0.10188185167774244</v>
       </c>
       <c r="V5" s="176">
-        <f>NPV($G$2,S5:S40)*(1+$G$2)</f>
+        <f t="shared" ref="V5:V40" si="5">NPV($G$2,S5:S40)*(1+$G$2)</f>
         <v>6.0649097153057641</v>
       </c>
       <c r="W5" s="176">
-        <f>NPV($G$2,T5:T40)*(1+$G$2)</f>
+        <f t="shared" ref="W5:W40" si="6">NPV($G$2,T5:T40)*(1+$G$2)</f>
         <v>7.141131410394288</v>
       </c>
       <c r="X5" s="176">
-        <f>O5-V5</f>
+        <f t="shared" ref="X5:X40" si="7">O5-V5</f>
         <v>-8.8817841970012523E-15</v>
       </c>
       <c r="Y5" s="176">
-        <f>P5-W5</f>
+        <f t="shared" ref="Y5:Y40" si="8">P5-W5</f>
         <v>-1.0658141036401503E-14</v>
       </c>
-      <c r="Z5" s="193">
+      <c r="Z5" s="178">
         <f>Y5/X5 - 1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AA5" s="173">
-        <f>V5/O5</f>
+        <f t="shared" ref="AA5:AA40" si="9">V5/O5</f>
         <v>1.0000000000000016</v>
       </c>
       <c r="AB5" s="173">
-        <f>W5/P5</f>
+        <f t="shared" ref="AB5:AB40" si="10">W5/P5</f>
         <v>1.0000000000000016</v>
       </c>
     </row>
@@ -10264,11 +10264,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E40" si="5">C6 +D6</f>
+        <f t="shared" ref="E6:E40" si="11">C6 +D6</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="F6" s="176">
-        <f t="shared" ref="F6:F39" si="6">F5*(1+C5)</f>
+        <f t="shared" ref="F6:F39" si="12">F5*(1+C5)</f>
         <v>1.0549999999999999</v>
       </c>
       <c r="G6" s="176">
@@ -10309,43 +10309,43 @@
       <c r="Q6" s="176"/>
       <c r="R6" s="176"/>
       <c r="S6" s="176">
-        <f t="shared" ref="S6:S40" si="7">F6*$G$1</f>
+        <f t="shared" ref="S6:S40" si="13">F6*$G$1</f>
         <v>0.29008344630888949</v>
       </c>
       <c r="T6" s="176">
-        <f t="shared" ref="T6:T40" si="8">G6*$J$1</f>
+        <f t="shared" ref="T6:T40" si="14">G6*$J$1</f>
         <v>0.32115255550473387</v>
       </c>
       <c r="U6" s="173">
-        <f t="shared" ref="U6:U39" si="9">T6/S6 - 1</f>
+        <f t="shared" ref="U6:U39" si="15">T6/S6 - 1</f>
         <v>0.10710404054825329</v>
       </c>
       <c r="V6" s="176">
-        <f>NPV($G$2,S6:S41)*(1+$G$2)</f>
+        <f t="shared" si="5"/>
         <v>6.2130384765609934</v>
       </c>
       <c r="W6" s="176">
-        <f>NPV($G$2,T6:T41)*(1+$G$2)</f>
+        <f t="shared" si="6"/>
         <v>7.3378424695999414</v>
       </c>
       <c r="X6" s="176">
-        <f>O6-V6</f>
+        <f t="shared" si="7"/>
         <v>0.29505282955288958</v>
       </c>
       <c r="Y6" s="176">
-        <f>P6-W6</f>
+        <f t="shared" si="8"/>
         <v>0.32511335817049414</v>
       </c>
-      <c r="Z6" s="193">
-        <f t="shared" ref="Z6:Z41" si="10">Y6/X6 - 1</f>
+      <c r="Z6" s="178">
+        <f t="shared" ref="Z6:Z41" si="16">Y6/X6 - 1</f>
         <v>0.10188185167773844</v>
       </c>
       <c r="AA6" s="173">
-        <f>V6/O6</f>
+        <f t="shared" si="9"/>
         <v>0.95466369236772863</v>
       </c>
       <c r="AB6" s="173">
-        <f>W6/P6</f>
+        <f t="shared" si="10"/>
         <v>0.95757337436393819</v>
       </c>
     </row>
@@ -10363,15 +10363,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="F7" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.1109149999999999</v>
       </c>
       <c r="G7" s="176">
-        <f t="shared" ref="G7:G39" si="11">G6*(1+E6)</f>
+        <f t="shared" ref="G7:G39" si="17">G6*(1+E6)</f>
         <v>1.12148</v>
       </c>
       <c r="I7" s="176">
@@ -10386,7 +10386,7 @@
         <v>0.999</v>
       </c>
       <c r="L7" s="177">
-        <f t="shared" ref="L7:L40" si="12">K6*L6</f>
+        <f t="shared" ref="L7:L40" si="18">K6*L6</f>
         <v>0.99800100000000003</v>
       </c>
       <c r="M7" s="177">
@@ -10408,43 +10408,43 @@
       <c r="Q7" s="176"/>
       <c r="R7" s="176"/>
       <c r="S7" s="176">
+        <f t="shared" si="13"/>
+        <v>0.30545786896326066</v>
+      </c>
+      <c r="T7" s="176">
+        <f t="shared" si="14"/>
+        <v>0.33977940372400844</v>
+      </c>
+      <c r="U7" s="173">
+        <f t="shared" si="15"/>
+        <v>0.11236094482436076</v>
+      </c>
+      <c r="V7" s="176">
+        <f t="shared" si="5"/>
+        <v>6.3557635559862407</v>
+      </c>
+      <c r="W7" s="176">
+        <f t="shared" si="6"/>
+        <v>7.5294210089189813</v>
+      </c>
+      <c r="X7" s="176">
         <f t="shared" si="7"/>
-        <v>0.30545786896326066</v>
-      </c>
-      <c r="T7" s="176">
+        <v>0.62789398170553579</v>
+      </c>
+      <c r="Y7" s="176">
         <f t="shared" si="8"/>
-        <v>0.33977940372400844</v>
-      </c>
-      <c r="U7" s="173">
+        <v>0.69349055000985604</v>
+      </c>
+      <c r="Z7" s="178">
+        <f t="shared" si="16"/>
+        <v>0.10447077088737444</v>
+      </c>
+      <c r="AA7" s="173">
         <f t="shared" si="9"/>
-        <v>0.11236094482436076</v>
-      </c>
-      <c r="V7" s="176">
-        <f>NPV($G$2,S7:S42)*(1+$G$2)</f>
-        <v>6.3557635559862407</v>
-      </c>
-      <c r="W7" s="176">
-        <f>NPV($G$2,T7:T42)*(1+$G$2)</f>
-        <v>7.5294210089189813</v>
-      </c>
-      <c r="X7" s="176">
-        <f>O7-V7</f>
-        <v>0.62789398170553579</v>
-      </c>
-      <c r="Y7" s="176">
-        <f>P7-W7</f>
-        <v>0.69349055000985604</v>
-      </c>
-      <c r="Z7" s="193">
+        <v>0.91009095473013901</v>
+      </c>
+      <c r="AB7" s="173">
         <f t="shared" si="10"/>
-        <v>0.10447077088737444</v>
-      </c>
-      <c r="AA7" s="173">
-        <f>V7/O7</f>
-        <v>0.91009095473013901</v>
-      </c>
-      <c r="AB7" s="173">
-        <f>W7/P7</f>
         <v>0.91566362534243362</v>
       </c>
     </row>
@@ -10462,15 +10462,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F8" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.1675716649999999</v>
       </c>
       <c r="G8" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.18428288</v>
       </c>
       <c r="I8" s="176">
@@ -10485,7 +10485,7 @@
         <v>0.999</v>
       </c>
       <c r="L8" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.997002999</v>
       </c>
       <c r="M8" s="177">
@@ -10507,43 +10507,43 @@
       <c r="Q8" s="176"/>
       <c r="R8" s="176"/>
       <c r="S8" s="176">
+        <f t="shared" si="13"/>
+        <v>0.32103622028038692</v>
+      </c>
+      <c r="T8" s="176">
+        <f t="shared" si="14"/>
+        <v>0.35880705033255289</v>
+      </c>
+      <c r="U8" s="173">
+        <f t="shared" si="15"/>
+        <v>0.11765286178356349</v>
+      </c>
+      <c r="V8" s="176">
+        <f t="shared" si="5"/>
+        <v>6.4924201166052393</v>
+      </c>
+      <c r="W8" s="176">
+        <f t="shared" si="6"/>
+        <v>7.7150108115805933</v>
+      </c>
+      <c r="X8" s="176">
         <f t="shared" si="7"/>
-        <v>0.32103622028038692</v>
-      </c>
-      <c r="T8" s="176">
+        <v>1.0015547386556065</v>
+      </c>
+      <c r="Y8" s="176">
         <f t="shared" si="8"/>
-        <v>0.35880705033255289</v>
-      </c>
-      <c r="U8" s="173">
+        <v>1.1087741645672677</v>
+      </c>
+      <c r="Z8" s="178">
+        <f t="shared" si="16"/>
+        <v>0.10705298649535866</v>
+      </c>
+      <c r="AA8" s="173">
         <f t="shared" si="9"/>
-        <v>0.11765286178356349</v>
-      </c>
-      <c r="V8" s="176">
-        <f>NPV($G$2,S8:S43)*(1+$G$2)</f>
-        <v>6.4924201166052393</v>
-      </c>
-      <c r="W8" s="176">
-        <f>NPV($G$2,T8:T43)*(1+$G$2)</f>
-        <v>7.7150108115805933</v>
-      </c>
-      <c r="X8" s="176">
-        <f>O8-V8</f>
-        <v>1.0015547386556065</v>
-      </c>
-      <c r="Y8" s="176">
-        <f>P8-W8</f>
-        <v>1.1087741645672677</v>
-      </c>
-      <c r="Z8" s="193">
+        <v>0.86635200170807825</v>
+      </c>
+      <c r="AB8" s="173">
         <f t="shared" si="10"/>
-        <v>0.10705298649535866</v>
-      </c>
-      <c r="AA8" s="173">
-        <f>V8/O8</f>
-        <v>0.86635200170807825</v>
-      </c>
-      <c r="AB8" s="173">
-        <f>W8/P8</f>
         <v>0.874342567552987</v>
       </c>
     </row>
@@ -10561,15 +10561,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F9" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.2247826765849998</v>
       </c>
       <c r="G9" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.2482341555200001</v>
       </c>
       <c r="I9" s="176">
@@ -10584,7 +10584,7 @@
         <v>0.999</v>
       </c>
       <c r="L9" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.99600599600100004</v>
       </c>
       <c r="M9" s="177">
@@ -10606,43 +10606,43 @@
       <c r="Q9" s="176"/>
       <c r="R9" s="176"/>
       <c r="S9" s="176">
+        <f t="shared" si="13"/>
+        <v>0.33676699507412589</v>
+      </c>
+      <c r="T9" s="176">
+        <f t="shared" si="14"/>
+        <v>0.37818263105051075</v>
+      </c>
+      <c r="U9" s="173">
+        <f t="shared" si="15"/>
+        <v>0.12298009182066338</v>
+      </c>
+      <c r="V9" s="176">
+        <f t="shared" si="5"/>
+        <v>6.6223458827429846</v>
+      </c>
+      <c r="W9" s="176">
+        <f t="shared" si="6"/>
+        <v>7.8937441762341338</v>
+      </c>
+      <c r="X9" s="176">
         <f t="shared" si="7"/>
-        <v>0.33676699507412589</v>
-      </c>
-      <c r="T9" s="176">
+        <v>1.4192367447241123</v>
+      </c>
+      <c r="Y9" s="176">
         <f t="shared" si="8"/>
-        <v>0.37818263105051075</v>
-      </c>
-      <c r="U9" s="173">
+        <v>1.5748218842568678</v>
+      </c>
+      <c r="Z9" s="178">
+        <f t="shared" si="16"/>
+        <v>0.10962592401241689</v>
+      </c>
+      <c r="AA9" s="173">
         <f t="shared" si="9"/>
-        <v>0.12298009182066338</v>
-      </c>
-      <c r="V9" s="176">
-        <f>NPV($G$2,S9:S44)*(1+$G$2)</f>
-        <v>6.6223458827429846</v>
-      </c>
-      <c r="W9" s="176">
-        <f>NPV($G$2,T9:T44)*(1+$G$2)</f>
-        <v>7.8937441762341338</v>
-      </c>
-      <c r="X9" s="176">
-        <f>O9-V9</f>
-        <v>1.4192367447241123</v>
-      </c>
-      <c r="Y9" s="176">
-        <f>P9-W9</f>
-        <v>1.5748218842568678</v>
-      </c>
-      <c r="Z9" s="193">
+        <v>0.82351275731763052</v>
+      </c>
+      <c r="AB9" s="173">
         <f t="shared" si="10"/>
-        <v>0.10962592401241689</v>
-      </c>
-      <c r="AA9" s="173">
-        <f>V9/O9</f>
-        <v>0.82351275731763052</v>
-      </c>
-      <c r="AB9" s="173">
-        <f>W9/P9</f>
         <v>0.83367894629493622</v>
       </c>
     </row>
@@ -10660,15 +10660,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="F10" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.2823474623844948</v>
       </c>
       <c r="G10" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3131423316070401</v>
       </c>
       <c r="I10" s="176">
@@ -10683,7 +10683,7 @@
         <v>0.999</v>
       </c>
       <c r="L10" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.99500999000499901</v>
       </c>
       <c r="M10" s="177">
@@ -10705,43 +10705,43 @@
       <c r="Q10" s="176"/>
       <c r="R10" s="176"/>
       <c r="S10" s="176">
+        <f t="shared" si="13"/>
+        <v>0.35259504384260981</v>
+      </c>
+      <c r="T10" s="176">
+        <f t="shared" si="14"/>
+        <v>0.39784812786513735</v>
+      </c>
+      <c r="U10" s="173">
+        <f t="shared" si="15"/>
+        <v>0.1283429384864736</v>
+      </c>
+      <c r="V10" s="176">
+        <f t="shared" si="5"/>
+        <v>6.7448854530340503</v>
+      </c>
+      <c r="W10" s="176">
+        <f t="shared" si="6"/>
+        <v>8.0647467231600025</v>
+      </c>
+      <c r="X10" s="176">
         <f t="shared" si="7"/>
-        <v>0.35259504384260981</v>
-      </c>
-      <c r="T10" s="176">
+        <v>1.8843203293931063</v>
+      </c>
+      <c r="Y10" s="176">
         <f t="shared" si="8"/>
-        <v>0.39784812786513735</v>
-      </c>
-      <c r="U10" s="173">
+        <v>2.0957165569664813</v>
+      </c>
+      <c r="Z10" s="178">
+        <f t="shared" si="16"/>
+        <v>0.11218699086129402</v>
+      </c>
+      <c r="AA10" s="173">
         <f t="shared" si="9"/>
-        <v>0.1283429384864736</v>
-      </c>
-      <c r="V10" s="176">
-        <f>NPV($G$2,S10:S45)*(1+$G$2)</f>
-        <v>6.7448854530340503</v>
-      </c>
-      <c r="W10" s="176">
-        <f>NPV($G$2,T10:T45)*(1+$G$2)</f>
-        <v>8.0647467231600025</v>
-      </c>
-      <c r="X10" s="176">
-        <f>O10-V10</f>
-        <v>1.8843203293931063</v>
-      </c>
-      <c r="Y10" s="176">
-        <f>P10-W10</f>
-        <v>2.0957165569664813</v>
-      </c>
-      <c r="Z10" s="193">
+        <v>0.78163455862526676</v>
+      </c>
+      <c r="AB10" s="173">
         <f t="shared" si="10"/>
-        <v>0.11218699086129402</v>
-      </c>
-      <c r="AA10" s="173">
-        <f>V10/O10</f>
-        <v>0.78163455862526676</v>
-      </c>
-      <c r="AB10" s="173">
-        <f>W10/P10</f>
         <v>0.79373809055876121</v>
       </c>
     </row>
@@ -10759,15 +10759,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.7999999999999994E-2</v>
       </c>
       <c r="F11" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.3400530981917971</v>
       </c>
       <c r="G11" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3787994481873922</v>
       </c>
       <c r="I11" s="176">
@@ -10782,7 +10782,7 @@
         <v>0.999</v>
       </c>
       <c r="L11" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.994014980014994</v>
       </c>
       <c r="M11" s="177">
@@ -10804,43 +10804,43 @@
       <c r="Q11" s="176"/>
       <c r="R11" s="176"/>
       <c r="S11" s="176">
+        <f t="shared" si="13"/>
+        <v>0.36846182081552725</v>
+      </c>
+      <c r="T11" s="176">
+        <f t="shared" si="14"/>
+        <v>0.41774053425839425</v>
+      </c>
+      <c r="U11" s="173">
+        <f t="shared" si="15"/>
+        <v>0.1337417085270789</v>
+      </c>
+      <c r="V11" s="176">
+        <f t="shared" si="5"/>
+        <v>6.8593947133665925</v>
+      </c>
+      <c r="W11" s="176">
+        <f t="shared" si="6"/>
+        <v>8.2271424365926897</v>
+      </c>
+      <c r="X11" s="176">
         <f t="shared" si="7"/>
-        <v>0.36846182081552725</v>
-      </c>
-      <c r="T11" s="176">
+        <v>2.4003736537624487</v>
+      </c>
+      <c r="Y11" s="176">
         <f t="shared" si="8"/>
-        <v>0.41774053425839425</v>
-      </c>
-      <c r="U11" s="173">
+        <v>2.6757771192587505</v>
+      </c>
+      <c r="Z11" s="178">
+        <f t="shared" si="16"/>
+        <v>0.1147335811925041</v>
+      </c>
+      <c r="AA11" s="173">
         <f t="shared" si="9"/>
-        <v>0.1337417085270789</v>
-      </c>
-      <c r="V11" s="176">
-        <f>NPV($G$2,S11:S46)*(1+$G$2)</f>
-        <v>6.8593947133665925</v>
-      </c>
-      <c r="W11" s="176">
-        <f>NPV($G$2,T11:T46)*(1+$G$2)</f>
-        <v>8.2271424365926897</v>
-      </c>
-      <c r="X11" s="176">
-        <f>O11-V11</f>
-        <v>2.4003736537624487</v>
-      </c>
-      <c r="Y11" s="176">
-        <f>P11-W11</f>
-        <v>2.6757771192587505</v>
-      </c>
-      <c r="Z11" s="193">
+        <v>0.74077389859086984</v>
+      </c>
+      <c r="AB11" s="173">
         <f t="shared" si="10"/>
-        <v>0.1147335811925041</v>
-      </c>
-      <c r="AA11" s="173">
-        <f>V11/O11</f>
-        <v>0.74077389859086984</v>
-      </c>
-      <c r="AB11" s="173">
-        <f>W11/P11</f>
         <v>0.75458159573206252</v>
       </c>
     </row>
@@ -10858,15 +10858,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F12" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.3976753814140443</v>
       </c>
       <c r="G12" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.4449818217003871</v>
       </c>
       <c r="I12" s="176">
@@ -10881,7 +10881,7 @@
         <v>0.999</v>
       </c>
       <c r="L12" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.99302096503497905</v>
       </c>
       <c r="M12" s="177">
@@ -10903,43 +10903,43 @@
       <c r="Q12" s="176"/>
       <c r="R12" s="176"/>
       <c r="S12" s="176">
+        <f t="shared" si="13"/>
+        <v>0.38430567911059488</v>
+      </c>
+      <c r="T12" s="176">
+        <f t="shared" si="14"/>
+        <v>0.43779207990279717</v>
+      </c>
+      <c r="U12" s="173">
+        <f t="shared" si="15"/>
+        <v>0.13917671192366132</v>
+      </c>
+      <c r="V12" s="176">
+        <f t="shared" si="5"/>
+        <v>6.9652453061208632</v>
+      </c>
+      <c r="W12" s="176">
+        <f t="shared" si="6"/>
+        <v>8.3800588982005628</v>
+      </c>
+      <c r="X12" s="176">
         <f t="shared" si="7"/>
-        <v>0.38430567911059488</v>
-      </c>
-      <c r="T12" s="176">
+        <v>2.971162791539129</v>
+      </c>
+      <c r="Y12" s="176">
         <f t="shared" si="8"/>
-        <v>0.43779207990279717</v>
-      </c>
-      <c r="U12" s="173">
+        <v>3.319570495065447</v>
+      </c>
+      <c r="Z12" s="178">
+        <f t="shared" si="16"/>
+        <v>0.11726308114737627</v>
+      </c>
+      <c r="AA12" s="173">
         <f t="shared" si="9"/>
-        <v>0.13917671192366132</v>
-      </c>
-      <c r="V12" s="176">
-        <f>NPV($G$2,S12:S47)*(1+$G$2)</f>
-        <v>6.9652453061208632</v>
-      </c>
-      <c r="W12" s="176">
-        <f>NPV($G$2,T12:T47)*(1+$G$2)</f>
-        <v>8.3800588982005628</v>
-      </c>
-      <c r="X12" s="176">
-        <f>O12-V12</f>
-        <v>2.971162791539129</v>
-      </c>
-      <c r="Y12" s="176">
-        <f>P12-W12</f>
-        <v>3.319570495065447</v>
-      </c>
-      <c r="Z12" s="193">
+        <v>0.70098220983507786</v>
+      </c>
+      <c r="AB12" s="173">
         <f t="shared" si="10"/>
-        <v>0.11726308114737627</v>
-      </c>
-      <c r="AA12" s="173">
-        <f>V12/O12</f>
-        <v>0.70098220983507786</v>
-      </c>
-      <c r="AB12" s="173">
-        <f>W12/P12</f>
         <v>0.71626703859729934</v>
       </c>
     </row>
@@ -10957,15 +10957,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F13" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.4549800720520201</v>
       </c>
       <c r="G13" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5114509854986049</v>
       </c>
       <c r="I13" s="176">
@@ -10980,7 +10980,7 @@
         <v>0.999</v>
       </c>
       <c r="L13" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.9920279440699441</v>
       </c>
       <c r="M13" s="177">
@@ -11002,43 +11002,43 @@
       <c r="Q13" s="176"/>
       <c r="R13" s="176"/>
       <c r="S13" s="176">
+        <f t="shared" si="13"/>
+        <v>0.40006221195412928</v>
+      </c>
+      <c r="T13" s="176">
+        <f t="shared" si="14"/>
+        <v>0.45793051557832581</v>
+      </c>
+      <c r="U13" s="173">
+        <f t="shared" si="15"/>
+        <v>0.14464826193290081</v>
+      </c>
+      <c r="V13" s="176">
+        <f t="shared" si="5"/>
+        <v>7.06182910926427</v>
+      </c>
+      <c r="W13" s="176">
+        <f t="shared" si="6"/>
+        <v>8.5226326618770845</v>
+      </c>
+      <c r="X13" s="176">
         <f t="shared" si="7"/>
-        <v>0.40006221195412928</v>
-      </c>
-      <c r="T13" s="176">
+        <v>3.600662863399906</v>
+      </c>
+      <c r="Y13" s="176">
         <f t="shared" si="8"/>
-        <v>0.45793051557832581</v>
-      </c>
-      <c r="U13" s="173">
+        <v>4.0319246049709285</v>
+      </c>
+      <c r="Z13" s="178">
+        <f t="shared" si="16"/>
+        <v>0.11977287458782127</v>
+      </c>
+      <c r="AA13" s="173">
         <f t="shared" si="9"/>
-        <v>0.14464826193290081</v>
-      </c>
-      <c r="V13" s="176">
-        <f>NPV($G$2,S13:S48)*(1+$G$2)</f>
-        <v>7.06182910926427</v>
-      </c>
-      <c r="W13" s="176">
-        <f>NPV($G$2,T13:T48)*(1+$G$2)</f>
-        <v>8.5226326618770845</v>
-      </c>
-      <c r="X13" s="176">
-        <f>O13-V13</f>
-        <v>3.600662863399906</v>
-      </c>
-      <c r="Y13" s="176">
-        <f>P13-W13</f>
-        <v>4.0319246049709285</v>
-      </c>
-      <c r="Z13" s="193">
+        <v>0.66230569058048927</v>
+      </c>
+      <c r="AB13" s="173">
         <f t="shared" si="10"/>
-        <v>0.11977287458782127</v>
-      </c>
-      <c r="AA13" s="173">
-        <f>V13/O13</f>
-        <v>0.66230569058048927</v>
-      </c>
-      <c r="AB13" s="173">
-        <f>W13/P13</f>
         <v>0.67884772682364802</v>
       </c>
     </row>
@@ -11056,15 +11056,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.1999999999999996E-2</v>
       </c>
       <c r="F14" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.5117242948620488</v>
       </c>
       <c r="G14" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5779548288605436</v>
       </c>
       <c r="I14" s="176">
@@ -11079,7 +11079,7 @@
         <v>0.999</v>
       </c>
       <c r="L14" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.99103591612587416</v>
       </c>
       <c r="M14" s="177">
@@ -11101,43 +11101,43 @@
       <c r="Q14" s="176"/>
       <c r="R14" s="176"/>
       <c r="S14" s="176">
+        <f t="shared" si="13"/>
+        <v>0.41566463822034033</v>
+      </c>
+      <c r="T14" s="176">
+        <f t="shared" si="14"/>
+        <v>0.47807945826377218</v>
+      </c>
+      <c r="U14" s="173">
+        <f t="shared" si="15"/>
+        <v>0.15015667512795794</v>
+      </c>
+      <c r="V14" s="176">
+        <f t="shared" si="5"/>
+        <v>7.1485626765930643</v>
+      </c>
+      <c r="W14" s="176">
+        <f t="shared" si="6"/>
+        <v>8.6540147155478149</v>
+      </c>
+      <c r="X14" s="176">
         <f t="shared" si="7"/>
-        <v>0.41566463822034033</v>
-      </c>
-      <c r="T14" s="176">
+        <v>4.2930703511306572</v>
+      </c>
+      <c r="Y14" s="176">
         <f t="shared" si="8"/>
-        <v>0.47807945826377218</v>
-      </c>
-      <c r="U14" s="173">
+        <v>4.8179426318606637</v>
+      </c>
+      <c r="Z14" s="178">
+        <f t="shared" si="16"/>
+        <v>0.12226034930729046</v>
+      </c>
+      <c r="AA14" s="173">
         <f t="shared" si="9"/>
-        <v>0.15015667512795794</v>
-      </c>
-      <c r="V14" s="176">
-        <f>NPV($G$2,S14:S49)*(1+$G$2)</f>
-        <v>7.1485626765930643</v>
-      </c>
-      <c r="W14" s="176">
-        <f>NPV($G$2,T14:T49)*(1+$G$2)</f>
-        <v>8.6540147155478149</v>
-      </c>
-      <c r="X14" s="176">
-        <f>O14-V14</f>
-        <v>4.2930703511306572</v>
-      </c>
-      <c r="Y14" s="176">
-        <f>P14-W14</f>
-        <v>4.8179426318606637</v>
-      </c>
-      <c r="Z14" s="193">
+        <v>0.6247851735212705</v>
+      </c>
+      <c r="AB14" s="173">
         <f t="shared" si="10"/>
-        <v>0.12226034930729046</v>
-      </c>
-      <c r="AA14" s="173">
-        <f>V14/O14</f>
-        <v>0.6247851735212705</v>
-      </c>
-      <c r="AB14" s="173">
-        <f>W14/P14</f>
         <v>0.64237248473864395</v>
       </c>
     </row>
@@ -11155,15 +11155,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F15" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.5676580937719444</v>
       </c>
       <c r="G15" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6442289316726866</v>
       </c>
       <c r="I15" s="176">
@@ -11178,7 +11178,7 @@
         <v>0.999</v>
       </c>
       <c r="L15" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.99004488020974823</v>
       </c>
       <c r="M15" s="177">
@@ -11200,43 +11200,43 @@
       <c r="Q15" s="176"/>
       <c r="R15" s="176"/>
       <c r="S15" s="176">
+        <f t="shared" si="13"/>
+        <v>0.43104422983449281</v>
+      </c>
+      <c r="T15" s="176">
+        <f t="shared" si="14"/>
+        <v>0.49815879551085068</v>
+      </c>
+      <c r="U15" s="173">
+        <f t="shared" si="15"/>
+        <v>0.15570227144005089</v>
+      </c>
+      <c r="V15" s="176">
+        <f t="shared" si="5"/>
+        <v>7.2248915887242857</v>
+      </c>
+      <c r="W15" s="176">
+        <f t="shared" si="6"/>
+        <v>8.7733759717802773</v>
+      </c>
+      <c r="X15" s="176">
         <f t="shared" si="7"/>
-        <v>0.43104422983449281</v>
-      </c>
-      <c r="T15" s="176">
+        <v>5.0528167253095839</v>
+      </c>
+      <c r="Y15" s="176">
         <f t="shared" si="8"/>
-        <v>0.49815879551085068</v>
-      </c>
-      <c r="U15" s="173">
+        <v>5.6830186993127096</v>
+      </c>
+      <c r="Z15" s="178">
+        <f t="shared" si="16"/>
+        <v>0.12472290373138639</v>
+      </c>
+      <c r="AA15" s="173">
         <f t="shared" si="9"/>
-        <v>0.15570227144005089</v>
-      </c>
-      <c r="V15" s="176">
-        <f>NPV($G$2,S15:S50)*(1+$G$2)</f>
-        <v>7.2248915887242857</v>
-      </c>
-      <c r="W15" s="176">
-        <f>NPV($G$2,T15:T50)*(1+$G$2)</f>
-        <v>8.7733759717802773</v>
-      </c>
-      <c r="X15" s="176">
-        <f>O15-V15</f>
-        <v>5.0528167253095839</v>
-      </c>
-      <c r="Y15" s="176">
-        <f>P15-W15</f>
-        <v>5.6830186993127096</v>
-      </c>
-      <c r="Z15" s="193">
+        <v>0.58845603788012868</v>
+      </c>
+      <c r="AB15" s="173">
         <f t="shared" si="10"/>
-        <v>0.12472290373138639</v>
-      </c>
-      <c r="AA15" s="173">
-        <f>V15/O15</f>
-        <v>0.58845603788012868</v>
-      </c>
-      <c r="AB15" s="173">
-        <f>W15/P15</f>
         <v>0.60688547673117443</v>
       </c>
     </row>
@@ -11254,15 +11254,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F16" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.6225261270539624</v>
       </c>
       <c r="G16" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.709998088939594</v>
       </c>
       <c r="I16" s="176">
@@ -11277,7 +11277,7 @@
         <v>0.999</v>
       </c>
       <c r="L16" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98905483532953853</v>
       </c>
       <c r="M16" s="177">
@@ -11299,43 +11299,43 @@
       <c r="Q16" s="176"/>
       <c r="R16" s="176"/>
       <c r="S16" s="176">
+        <f t="shared" si="13"/>
+        <v>0.44613077787870004</v>
+      </c>
+      <c r="T16" s="176">
+        <f t="shared" si="14"/>
+        <v>0.51808514733128475</v>
+      </c>
+      <c r="U16" s="173">
+        <f t="shared" si="15"/>
+        <v>0.16128537420063105</v>
+      </c>
+      <c r="V16" s="176">
+        <f t="shared" si="5"/>
+        <v>7.2902946633932517</v>
+      </c>
+      <c r="W16" s="176">
+        <f t="shared" si="6"/>
+        <v>8.8799127256865091</v>
+      </c>
+      <c r="X16" s="176">
         <f t="shared" si="7"/>
-        <v>0.44613077787870004</v>
-      </c>
-      <c r="T16" s="176">
+        <v>5.8845835274418894</v>
+      </c>
+      <c r="Y16" s="176">
         <f t="shared" si="8"/>
-        <v>0.51808514733128475</v>
-      </c>
-      <c r="U16" s="173">
+        <v>6.6328551295804381</v>
+      </c>
+      <c r="Z16" s="178">
+        <f t="shared" si="16"/>
+        <v>0.12715795410993724</v>
+      </c>
+      <c r="AA16" s="173">
         <f t="shared" si="9"/>
-        <v>0.16128537420063105</v>
-      </c>
-      <c r="V16" s="176">
-        <f>NPV($G$2,S16:S51)*(1+$G$2)</f>
-        <v>7.2902946633932517</v>
-      </c>
-      <c r="W16" s="176">
-        <f>NPV($G$2,T16:T51)*(1+$G$2)</f>
-        <v>8.8799127256865091</v>
-      </c>
-      <c r="X16" s="176">
-        <f>O16-V16</f>
-        <v>5.8845835274418894</v>
-      </c>
-      <c r="Y16" s="176">
-        <f>P16-W16</f>
-        <v>6.6328551295804381</v>
-      </c>
-      <c r="Z16" s="193">
+        <v>0.55334816442284906</v>
+      </c>
+      <c r="AB16" s="173">
         <f t="shared" si="10"/>
-        <v>0.12715795410993724</v>
-      </c>
-      <c r="AA16" s="173">
-        <f>V16/O16</f>
-        <v>0.55334816442284906</v>
-      </c>
-      <c r="AB16" s="173">
-        <f>W16/P16</f>
         <v>0.57242606919251815</v>
       </c>
     </row>
@@ -11353,15 +11353,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F17" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.679314541500851</v>
       </c>
       <c r="G17" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.7783980124971779</v>
       </c>
       <c r="I17" s="176">
@@ -11376,7 +11376,7 @@
         <v>0.999</v>
       </c>
       <c r="L17" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98806578049420901</v>
       </c>
       <c r="M17" s="177">
@@ -11398,43 +11398,43 @@
       <c r="Q17" s="176"/>
       <c r="R17" s="176"/>
       <c r="S17" s="176">
+        <f t="shared" si="13"/>
+        <v>0.46174535510445452</v>
+      </c>
+      <c r="T17" s="176">
+        <f t="shared" si="14"/>
+        <v>0.53880855322453614</v>
+      </c>
+      <c r="U17" s="173">
+        <f t="shared" si="15"/>
+        <v>0.16689544847213167</v>
+      </c>
+      <c r="V17" s="176">
+        <f t="shared" si="5"/>
+        <v>7.3442879732448434</v>
+      </c>
+      <c r="W17" s="176">
+        <f t="shared" si="6"/>
+        <v>8.9728520160128138</v>
+      </c>
+      <c r="X17" s="176">
         <f t="shared" si="7"/>
-        <v>0.46174535510445452</v>
-      </c>
-      <c r="T17" s="176">
+        <v>6.793319054358034</v>
+      </c>
+      <c r="Y17" s="176">
         <f t="shared" si="8"/>
-        <v>0.53880855322453614</v>
-      </c>
-      <c r="U17" s="173">
+        <v>7.6734814583076787</v>
+      </c>
+      <c r="Z17" s="178">
+        <f t="shared" si="16"/>
+        <v>0.12956294219465603</v>
+      </c>
+      <c r="AA17" s="173">
         <f t="shared" si="9"/>
-        <v>0.16689544847213167</v>
-      </c>
-      <c r="V17" s="176">
-        <f>NPV($G$2,S17:S52)*(1+$G$2)</f>
-        <v>7.3442879732448434</v>
-      </c>
-      <c r="W17" s="176">
-        <f>NPV($G$2,T17:T52)*(1+$G$2)</f>
-        <v>8.9728520160128138</v>
-      </c>
-      <c r="X17" s="176">
-        <f>O17-V17</f>
-        <v>6.793319054358034</v>
-      </c>
-      <c r="Y17" s="176">
-        <f>P17-W17</f>
-        <v>7.6734814583076787</v>
-      </c>
-      <c r="Z17" s="193">
+        <v>0.51948593272578147</v>
+      </c>
+      <c r="AB17" s="173">
         <f t="shared" si="10"/>
-        <v>0.12956294219465603</v>
-      </c>
-      <c r="AA17" s="173">
-        <f>V17/O17</f>
-        <v>0.51948593272578147</v>
-      </c>
-      <c r="AB17" s="173">
-        <f>W17/P17</f>
         <v>0.53902873145337415</v>
       </c>
     </row>
@@ -11452,15 +11452,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F18" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.7380905504533806</v>
       </c>
       <c r="G18" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.849533932997065</v>
       </c>
       <c r="I18" s="176">
@@ -11475,7 +11475,7 @@
         <v>0.999</v>
       </c>
       <c r="L18" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98707771471371475</v>
       </c>
       <c r="M18" s="177">
@@ -11497,43 +11497,43 @@
       <c r="Q18" s="176"/>
       <c r="R18" s="176"/>
       <c r="S18" s="176">
+        <f t="shared" si="13"/>
+        <v>0.47790644253311038</v>
+      </c>
+      <c r="T18" s="176">
+        <f t="shared" si="14"/>
+        <v>0.56036089535351763</v>
+      </c>
+      <c r="U18" s="173">
+        <f t="shared" si="15"/>
+        <v>0.17253262455170737</v>
+      </c>
+      <c r="V18" s="176">
+        <f t="shared" si="5"/>
+        <v>7.3854711578043029</v>
+      </c>
+      <c r="W18" s="176">
+        <f t="shared" si="6"/>
+        <v>9.0503449370460824</v>
+      </c>
+      <c r="X18" s="176">
         <f t="shared" si="7"/>
-        <v>0.47790644253311038</v>
-      </c>
-      <c r="T18" s="176">
+        <v>7.7852142612049908</v>
+      </c>
+      <c r="Y18" s="176">
         <f t="shared" si="8"/>
-        <v>0.56036089535351763</v>
-      </c>
-      <c r="U18" s="173">
+        <v>8.8123872796421754</v>
+      </c>
+      <c r="Z18" s="178">
+        <f t="shared" si="16"/>
+        <v>0.13193895299141056</v>
+      </c>
+      <c r="AA18" s="173">
         <f t="shared" si="9"/>
-        <v>0.17253262455170737</v>
-      </c>
-      <c r="V18" s="176">
-        <f>NPV($G$2,S18:S53)*(1+$G$2)</f>
-        <v>7.3854711578043029</v>
-      </c>
-      <c r="W18" s="176">
-        <f>NPV($G$2,T18:T53)*(1+$G$2)</f>
-        <v>9.0503449370460824</v>
-      </c>
-      <c r="X18" s="176">
-        <f>O18-V18</f>
-        <v>7.7852142612049908</v>
-      </c>
-      <c r="Y18" s="176">
-        <f>P18-W18</f>
-        <v>8.8123872796421754</v>
-      </c>
-      <c r="Z18" s="193">
+        <v>0.48682514690800327</v>
+      </c>
+      <c r="AB18" s="173">
         <f t="shared" si="10"/>
-        <v>0.13193895299141056</v>
-      </c>
-      <c r="AA18" s="173">
-        <f>V18/O18</f>
-        <v>0.48682514690800327</v>
-      </c>
-      <c r="AB18" s="173">
-        <f>W18/P18</f>
         <v>0.5066607295714145</v>
       </c>
     </row>
@@ -11551,15 +11551,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F19" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.7989237197192487</v>
       </c>
       <c r="G19" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.9235152903169477</v>
       </c>
       <c r="I19" s="176">
@@ -11574,7 +11574,7 @@
         <v>0.999</v>
       </c>
       <c r="L19" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98609063699900101</v>
       </c>
       <c r="M19" s="177">
@@ -11596,43 +11596,43 @@
       <c r="Q19" s="176"/>
       <c r="R19" s="176"/>
       <c r="S19" s="176">
+        <f t="shared" si="13"/>
+        <v>0.49463316802176921</v>
+      </c>
+      <c r="T19" s="176">
+        <f t="shared" si="14"/>
+        <v>0.58277533116765834</v>
+      </c>
+      <c r="U19" s="173">
+        <f t="shared" si="15"/>
+        <v>0.17819703336596682</v>
+      </c>
+      <c r="V19" s="176">
+        <f t="shared" si="5"/>
+        <v>7.4123216964671839</v>
+      </c>
+      <c r="W19" s="176">
+        <f t="shared" si="6"/>
+        <v>9.1103732659603889</v>
+      </c>
+      <c r="X19" s="176">
         <f t="shared" si="7"/>
-        <v>0.49463316802176921</v>
-      </c>
-      <c r="T19" s="176">
+        <v>8.8669323267339806</v>
+      </c>
+      <c r="Y19" s="176">
         <f t="shared" si="8"/>
-        <v>0.58277533116765834</v>
-      </c>
-      <c r="U19" s="173">
+        <v>10.057643687282669</v>
+      </c>
+      <c r="Z19" s="178">
+        <f t="shared" si="16"/>
+        <v>0.13428673149547654</v>
+      </c>
+      <c r="AA19" s="173">
         <f t="shared" si="9"/>
-        <v>0.17819703336596682</v>
-      </c>
-      <c r="V19" s="176">
-        <f>NPV($G$2,S19:S54)*(1+$G$2)</f>
-        <v>7.4123216964671839</v>
-      </c>
-      <c r="W19" s="176">
-        <f>NPV($G$2,T19:T54)*(1+$G$2)</f>
-        <v>9.1103732659603889</v>
-      </c>
-      <c r="X19" s="176">
-        <f>O19-V19</f>
-        <v>8.8669323267339806</v>
-      </c>
-      <c r="Y19" s="176">
-        <f>P19-W19</f>
-        <v>10.057643687282669</v>
-      </c>
-      <c r="Z19" s="193">
+        <v>0.45532317917658605</v>
+      </c>
+      <c r="AB19" s="173">
         <f t="shared" si="10"/>
-        <v>0.13428673149547654</v>
-      </c>
-      <c r="AA19" s="173">
-        <f>V19/O19</f>
-        <v>0.45532317917658605</v>
-      </c>
-      <c r="AB19" s="173">
-        <f>W19/P19</f>
         <v>0.47529033849372693</v>
       </c>
     </row>
@@ -11650,15 +11650,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F20" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.8618860499094223</v>
       </c>
       <c r="G20" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.0004559019296257</v>
       </c>
       <c r="I20" s="176">
@@ -11673,7 +11673,7 @@
         <v>0.999</v>
       </c>
       <c r="L20" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98510454636200206</v>
       </c>
       <c r="M20" s="177">
@@ -11695,43 +11695,43 @@
       <c r="Q20" s="176"/>
       <c r="R20" s="176"/>
       <c r="S20" s="176">
+        <f t="shared" si="13"/>
+        <v>0.51194532890253108</v>
+      </c>
+      <c r="T20" s="176">
+        <f t="shared" si="14"/>
+        <v>0.60608634441436471</v>
+      </c>
+      <c r="U20" s="173">
+        <f t="shared" si="15"/>
+        <v>0.18388880647401518</v>
+      </c>
+      <c r="V20" s="176">
+        <f t="shared" si="5"/>
+        <v>7.4231852877812656</v>
+      </c>
+      <c r="W20" s="176">
+        <f t="shared" si="6"/>
+        <v>9.150735721819629</v>
+      </c>
+      <c r="X20" s="176">
         <f t="shared" si="7"/>
-        <v>0.51194532890253108</v>
-      </c>
-      <c r="T20" s="176">
+        <v>10.045643854232399</v>
+      </c>
+      <c r="Y20" s="176">
         <f t="shared" si="8"/>
-        <v>0.60608634441436471</v>
-      </c>
-      <c r="U20" s="173">
+        <v>11.417947134913664</v>
+      </c>
+      <c r="Z20" s="178">
+        <f t="shared" si="16"/>
+        <v>0.13660680197248798</v>
+      </c>
+      <c r="AA20" s="173">
         <f t="shared" si="9"/>
-        <v>0.18388880647401518</v>
-      </c>
-      <c r="V20" s="176">
-        <f>NPV($G$2,S20:S55)*(1+$G$2)</f>
-        <v>7.4231852877812656</v>
-      </c>
-      <c r="W20" s="176">
-        <f>NPV($G$2,T20:T55)*(1+$G$2)</f>
-        <v>9.150735721819629</v>
-      </c>
-      <c r="X20" s="176">
-        <f>O20-V20</f>
-        <v>10.045643854232399</v>
-      </c>
-      <c r="Y20" s="176">
-        <f>P20-W20</f>
-        <v>11.417947134913664</v>
-      </c>
-      <c r="Z20" s="193">
+        <v>0.42493891419019175</v>
+      </c>
+      <c r="AB20" s="173">
         <f t="shared" si="10"/>
-        <v>0.13660680197248798</v>
-      </c>
-      <c r="AA20" s="173">
-        <f>V20/O20</f>
-        <v>0.42493891419019175</v>
-      </c>
-      <c r="AB20" s="173">
-        <f>W20/P20</f>
         <v>0.44488681096194138</v>
       </c>
     </row>
@@ -11749,15 +11749,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F21" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9270520616562519</v>
       </c>
       <c r="G21" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.080474138006811</v>
       </c>
       <c r="I21" s="176">
@@ -11772,7 +11772,7 @@
         <v>0.999</v>
       </c>
       <c r="L21" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98411944181564004</v>
       </c>
       <c r="M21" s="177">
@@ -11794,43 +11794,43 @@
       <c r="Q21" s="176"/>
       <c r="R21" s="176"/>
       <c r="S21" s="176">
+        <f t="shared" si="13"/>
+        <v>0.52986341541411963</v>
+      </c>
+      <c r="T21" s="176">
+        <f t="shared" si="14"/>
+        <v>0.63032979819093937</v>
+      </c>
+      <c r="U21" s="173">
+        <f t="shared" si="15"/>
+        <v>0.18960807607050834</v>
+      </c>
+      <c r="V21" s="176">
+        <f t="shared" si="5"/>
+        <v>7.4162655014194243</v>
+      </c>
+      <c r="W21" s="176">
+        <f t="shared" si="6"/>
+        <v>9.1690331657441853</v>
+      </c>
+      <c r="X21" s="176">
         <f t="shared" si="7"/>
-        <v>0.52986341541411963</v>
-      </c>
-      <c r="T21" s="176">
+        <v>11.329064668989638</v>
+      </c>
+      <c r="Y21" s="176">
         <f t="shared" si="8"/>
-        <v>0.63032979819093937</v>
-      </c>
-      <c r="U21" s="173">
+        <v>12.902666556396049</v>
+      </c>
+      <c r="Z21" s="178">
+        <f t="shared" si="16"/>
+        <v>0.13889954143467254</v>
+      </c>
+      <c r="AA21" s="173">
         <f t="shared" si="9"/>
-        <v>0.18960807607050834</v>
-      </c>
-      <c r="V21" s="176">
-        <f>NPV($G$2,S21:S56)*(1+$G$2)</f>
-        <v>7.4162655014194243</v>
-      </c>
-      <c r="W21" s="176">
-        <f>NPV($G$2,T21:T56)*(1+$G$2)</f>
-        <v>9.1690331657441853</v>
-      </c>
-      <c r="X21" s="176">
-        <f>O21-V21</f>
-        <v>11.329064668989638</v>
-      </c>
-      <c r="Y21" s="176">
-        <f>P21-W21</f>
-        <v>12.902666556396049</v>
-      </c>
-      <c r="Z21" s="193">
+        <v>0.39563269539666829</v>
+      </c>
+      <c r="AB21" s="173">
         <f t="shared" si="10"/>
-        <v>0.13889954143467254</v>
-      </c>
-      <c r="AA21" s="173">
-        <f>V21/O21</f>
-        <v>0.39563269539666829</v>
-      </c>
-      <c r="AB21" s="173">
-        <f>W21/P21</f>
         <v>0.41542034737572481</v>
       </c>
     </row>
@@ -11848,15 +11848,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F22" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9944988838142206</v>
       </c>
       <c r="G22" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.1636931035270837</v>
       </c>
       <c r="I22" s="176">
@@ -11871,7 +11871,7 @@
         <v>0.999</v>
       </c>
       <c r="L22" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98313532237382439</v>
       </c>
       <c r="M22" s="177">
@@ -11893,43 +11893,43 @@
       <c r="Q22" s="176"/>
       <c r="R22" s="176"/>
       <c r="S22" s="176">
+        <f t="shared" si="13"/>
+        <v>0.5484086349536138</v>
+      </c>
+      <c r="T22" s="176">
+        <f t="shared" si="14"/>
+        <v>0.65554299011857697</v>
+      </c>
+      <c r="U22" s="173">
+        <f t="shared" si="15"/>
+        <v>0.19535497498872334</v>
+      </c>
+      <c r="V22" s="176">
+        <f t="shared" si="5"/>
+        <v>7.3896126488465343</v>
+      </c>
+      <c r="W22" s="176">
+        <f t="shared" si="6"/>
+        <v>9.1626526626797613</v>
+      </c>
+      <c r="X22" s="176">
         <f t="shared" si="7"/>
-        <v>0.5484086349536138</v>
-      </c>
-      <c r="T22" s="176">
+        <v>12.725496402883714</v>
+      </c>
+      <c r="Y22" s="176">
         <f t="shared" si="8"/>
-        <v>0.65554299011857697</v>
-      </c>
-      <c r="U22" s="173">
+        <v>14.521893986103358</v>
+      </c>
+      <c r="Z22" s="178">
+        <f t="shared" si="16"/>
+        <v>0.14116522659285535</v>
+      </c>
+      <c r="AA22" s="173">
         <f t="shared" si="9"/>
-        <v>0.19535497498872334</v>
-      </c>
-      <c r="V22" s="176">
-        <f>NPV($G$2,S22:S57)*(1+$G$2)</f>
-        <v>7.3896126488465343</v>
-      </c>
-      <c r="W22" s="176">
-        <f>NPV($G$2,T22:T57)*(1+$G$2)</f>
-        <v>9.1626526626797613</v>
-      </c>
-      <c r="X22" s="176">
-        <f>O22-V22</f>
-        <v>12.725496402883714</v>
-      </c>
-      <c r="Y22" s="176">
-        <f>P22-W22</f>
-        <v>14.521893986103358</v>
-      </c>
-      <c r="Z22" s="193">
+        <v>0.36736627327461097</v>
+      </c>
+      <c r="AB22" s="173">
         <f t="shared" si="10"/>
-        <v>0.14116522659285535</v>
-      </c>
-      <c r="AA22" s="173">
-        <f>V22/O22</f>
-        <v>0.36736627327461097</v>
-      </c>
-      <c r="AB22" s="173">
-        <f>W22/P22</f>
         <v>0.38686206658511346</v>
       </c>
     </row>
@@ -11947,15 +11947,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F23" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0643063447477181</v>
       </c>
       <c r="G23" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.2502408276681671</v>
       </c>
       <c r="I23" s="176">
@@ -11970,7 +11970,7 @@
         <v>0.999</v>
       </c>
       <c r="L23" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98215218705145058</v>
       </c>
       <c r="M23" s="177">
@@ -11992,43 +11992,43 @@
       <c r="Q23" s="176"/>
       <c r="R23" s="176"/>
       <c r="S23" s="176">
+        <f t="shared" si="13"/>
+        <v>0.56760293717699017</v>
+      </c>
+      <c r="T23" s="176">
+        <f t="shared" si="14"/>
+        <v>0.68176470972332004</v>
+      </c>
+      <c r="U23" s="173">
+        <f t="shared" si="15"/>
+        <v>0.20112963670364503</v>
+      </c>
+      <c r="V23" s="176">
+        <f t="shared" si="5"/>
+        <v>7.3411118147079177</v>
+      </c>
+      <c r="W23" s="176">
+        <f t="shared" si="6"/>
+        <v>9.128750319304892</v>
+      </c>
+      <c r="X23" s="176">
         <f t="shared" si="7"/>
-        <v>0.56760293717699017</v>
-      </c>
-      <c r="T23" s="176">
+        <v>14.243870070632244</v>
+      </c>
+      <c r="Y23" s="176">
         <f t="shared" si="8"/>
-        <v>0.68176470972332004</v>
-      </c>
-      <c r="U23" s="173">
+        <v>16.286498937447359</v>
+      </c>
+      <c r="Z23" s="178">
+        <f t="shared" si="16"/>
+        <v>0.14340406481427892</v>
+      </c>
+      <c r="AA23" s="173">
         <f t="shared" si="9"/>
-        <v>0.20112963670364503</v>
-      </c>
-      <c r="V23" s="176">
-        <f>NPV($G$2,S23:S58)*(1+$G$2)</f>
-        <v>7.3411118147079177</v>
-      </c>
-      <c r="W23" s="176">
-        <f>NPV($G$2,T23:T58)*(1+$G$2)</f>
-        <v>9.128750319304892</v>
-      </c>
-      <c r="X23" s="176">
-        <f>O23-V23</f>
-        <v>14.243870070632244</v>
-      </c>
-      <c r="Y23" s="176">
-        <f>P23-W23</f>
-        <v>16.286498937447359</v>
-      </c>
-      <c r="Z23" s="193">
+        <v>0.34010275541133389</v>
+      </c>
+      <c r="AB23" s="173">
         <f t="shared" si="10"/>
-        <v>0.14340406481427892</v>
-      </c>
-      <c r="AA23" s="173">
-        <f>V23/O23</f>
-        <v>0.34010275541133389</v>
-      </c>
-      <c r="AB23" s="173">
-        <f>W23/P23</f>
         <v>0.35918397758304854</v>
       </c>
     </row>
@@ -12046,15 +12046,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F24" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.136557066813888</v>
       </c>
       <c r="G24" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.340250460774894</v>
       </c>
       <c r="I24" s="176">
@@ -12069,7 +12069,7 @@
         <v>0.999</v>
       </c>
       <c r="L24" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98117003486439913</v>
       </c>
       <c r="M24" s="177">
@@ -12091,43 +12091,43 @@
       <c r="Q24" s="176"/>
       <c r="R24" s="176"/>
       <c r="S24" s="176">
+        <f t="shared" si="13"/>
+        <v>0.58746903997818478</v>
+      </c>
+      <c r="T24" s="176">
+        <f t="shared" si="14"/>
+        <v>0.70903529811225297</v>
+      </c>
+      <c r="U24" s="173">
+        <f t="shared" si="15"/>
+        <v>0.2069321953350638</v>
+      </c>
+      <c r="V24" s="176">
+        <f t="shared" si="5"/>
+        <v>7.2684699866998557</v>
+      </c>
+      <c r="W24" s="176">
+        <f t="shared" si="6"/>
+        <v>9.064232806277726</v>
+      </c>
+      <c r="X24" s="176">
         <f t="shared" si="7"/>
-        <v>0.58746903997818478</v>
-      </c>
-      <c r="T24" s="176">
+        <v>15.893792857228728</v>
+      </c>
+      <c r="Y24" s="176">
         <f t="shared" si="8"/>
-        <v>0.70903529811225297</v>
-      </c>
-      <c r="U24" s="173">
+        <v>18.208186816583552</v>
+      </c>
+      <c r="Z24" s="178">
+        <f t="shared" si="16"/>
+        <v>0.14561621509381917</v>
+      </c>
+      <c r="AA24" s="173">
         <f t="shared" si="9"/>
-        <v>0.2069321953350638</v>
-      </c>
-      <c r="V24" s="176">
-        <f>NPV($G$2,S24:S59)*(1+$G$2)</f>
-        <v>7.2684699866998557</v>
-      </c>
-      <c r="W24" s="176">
-        <f>NPV($G$2,T24:T59)*(1+$G$2)</f>
-        <v>9.064232806277726</v>
-      </c>
-      <c r="X24" s="176">
-        <f>O24-V24</f>
-        <v>15.893792857228728</v>
-      </c>
-      <c r="Y24" s="176">
-        <f>P24-W24</f>
-        <v>18.208186816583552</v>
-      </c>
-      <c r="Z24" s="193">
+        <v>0.31380655835209581</v>
+      </c>
+      <c r="AB24" s="173">
         <f t="shared" si="10"/>
-        <v>0.14561621509381917</v>
-      </c>
-      <c r="AA24" s="173">
-        <f>V24/O24</f>
-        <v>0.31380655835209581</v>
-      </c>
-      <c r="AB24" s="173">
-        <f>W24/P24</f>
         <v>0.33235895207037575</v>
       </c>
     </row>
@@ -12145,15 +12145,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F25" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2113365641523739</v>
       </c>
       <c r="G25" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.4338604792058898</v>
       </c>
       <c r="I25" s="176">
@@ -12168,7 +12168,7 @@
         <v>0.999</v>
       </c>
       <c r="L25" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.98018886482953471</v>
       </c>
       <c r="M25" s="177">
@@ -12190,43 +12190,43 @@
       <c r="Q25" s="176"/>
       <c r="R25" s="176"/>
       <c r="S25" s="176">
+        <f t="shared" si="13"/>
+        <v>0.60803045637742126</v>
+      </c>
+      <c r="T25" s="176">
+        <f t="shared" si="14"/>
+        <v>0.73739671003674301</v>
+      </c>
+      <c r="U25" s="173">
+        <f t="shared" si="15"/>
+        <v>0.21276278565069195</v>
+      </c>
+      <c r="V25" s="176">
+        <f t="shared" si="5"/>
+        <v>7.1692022171027308</v>
+      </c>
+      <c r="W25" s="176">
+        <f t="shared" si="6"/>
+        <v>8.9657374662196059</v>
+      </c>
+      <c r="X25" s="176">
         <f t="shared" si="7"/>
-        <v>0.60803045637742126</v>
-      </c>
-      <c r="T25" s="176">
+        <v>17.685598352157982</v>
+      </c>
+      <c r="Y25" s="176">
         <f t="shared" si="8"/>
-        <v>0.73739671003674301</v>
-      </c>
-      <c r="U25" s="173">
+        <v>20.299561668622538</v>
+      </c>
+      <c r="Z25" s="178">
+        <f t="shared" si="16"/>
+        <v>0.14780180259751297</v>
+      </c>
+      <c r="AA25" s="173">
         <f t="shared" si="9"/>
-        <v>0.21276278565069195</v>
-      </c>
-      <c r="V25" s="176">
-        <f>NPV($G$2,S25:S60)*(1+$G$2)</f>
-        <v>7.1692022171027308</v>
-      </c>
-      <c r="W25" s="176">
-        <f>NPV($G$2,T25:T60)*(1+$G$2)</f>
-        <v>8.9657374662196059</v>
-      </c>
-      <c r="X25" s="176">
-        <f>O25-V25</f>
-        <v>17.685598352157982</v>
-      </c>
-      <c r="Y25" s="176">
-        <f>P25-W25</f>
-        <v>20.299561668622538</v>
-      </c>
-      <c r="Z25" s="193">
+        <v>0.28844336115773439</v>
+      </c>
+      <c r="AB25" s="173">
         <f t="shared" si="10"/>
-        <v>0.14780180259751297</v>
-      </c>
-      <c r="AA25" s="173">
-        <f>V25/O25</f>
-        <v>0.28844336115773439</v>
-      </c>
-      <c r="AB25" s="173">
-        <f>W25/P25</f>
         <v>0.30636069786641418</v>
       </c>
     </row>
@@ -12244,15 +12244,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F26" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2887333438977069</v>
       </c>
       <c r="G26" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.5312148983741256</v>
       </c>
       <c r="I26" s="176">
@@ -12267,7 +12267,7 @@
         <v>0.999</v>
       </c>
       <c r="L26" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97920867596470518</v>
       </c>
       <c r="M26" s="177">
@@ -12289,43 +12289,43 @@
       <c r="Q26" s="176"/>
       <c r="R26" s="176"/>
       <c r="S26" s="176">
+        <f t="shared" si="13"/>
+        <v>0.62931152235063093</v>
+      </c>
+      <c r="T26" s="176">
+        <f t="shared" si="14"/>
+        <v>0.7668925784382129</v>
+      </c>
+      <c r="U26" s="173">
+        <f t="shared" si="15"/>
+        <v>0.21862154306929482</v>
+      </c>
+      <c r="V26" s="176">
+        <f t="shared" si="5"/>
+        <v>7.0406167442417766</v>
+      </c>
+      <c r="W26" s="176">
+        <f t="shared" si="6"/>
+        <v>8.8296109015295574</v>
+      </c>
+      <c r="X26" s="176">
         <f t="shared" si="7"/>
-        <v>0.62931152235063093</v>
-      </c>
-      <c r="T26" s="176">
+        <v>19.630400483233185</v>
+      </c>
+      <c r="Y26" s="176">
         <f t="shared" si="8"/>
-        <v>0.7668925784382129</v>
-      </c>
-      <c r="U26" s="173">
+        <v>22.574193575498249</v>
+      </c>
+      <c r="Z26" s="178">
+        <f t="shared" si="16"/>
+        <v>0.14996092895707513</v>
+      </c>
+      <c r="AA26" s="173">
         <f t="shared" si="9"/>
-        <v>0.21862154306929482</v>
-      </c>
-      <c r="V26" s="176">
-        <f>NPV($G$2,S26:S61)*(1+$G$2)</f>
-        <v>7.0406167442417766</v>
-      </c>
-      <c r="W26" s="176">
-        <f>NPV($G$2,T26:T61)*(1+$G$2)</f>
-        <v>8.8296109015295574</v>
-      </c>
-      <c r="X26" s="176">
-        <f>O26-V26</f>
-        <v>19.630400483233185</v>
-      </c>
-      <c r="Y26" s="176">
-        <f>P26-W26</f>
-        <v>22.574193575498249</v>
-      </c>
-      <c r="Z26" s="193">
+        <v>0.26398006061009682</v>
+      </c>
+      <c r="AB26" s="173">
         <f t="shared" si="10"/>
-        <v>0.14996092895707513</v>
-      </c>
-      <c r="AA26" s="173">
-        <f>V26/O26</f>
-        <v>0.26398006061009682</v>
-      </c>
-      <c r="AB26" s="173">
-        <f>W26/P26</f>
         <v>0.28116373313903747</v>
       </c>
     </row>
@@ -12343,15 +12343,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F27" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.3688390109341264</v>
       </c>
       <c r="G27" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.6324634943090905</v>
       </c>
       <c r="I27" s="176">
@@ -12366,7 +12366,7 @@
         <v>0.999</v>
       </c>
       <c r="L27" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.9782294672887405</v>
       </c>
       <c r="M27" s="177">
@@ -12388,43 +12388,43 @@
       <c r="Q27" s="176"/>
       <c r="R27" s="176"/>
       <c r="S27" s="176">
+        <f t="shared" si="13"/>
+        <v>0.65133742563290298</v>
+      </c>
+      <c r="T27" s="176">
+        <f t="shared" si="14"/>
+        <v>0.79756828157574133</v>
+      </c>
+      <c r="U27" s="173">
+        <f t="shared" si="15"/>
+        <v>0.22450860366383241</v>
+      </c>
+      <c r="V27" s="176">
+        <f t="shared" si="5"/>
+        <v>6.8797989968641717</v>
+      </c>
+      <c r="W27" s="176">
+        <f t="shared" si="6"/>
+        <v>8.6518859282822049</v>
+      </c>
+      <c r="X27" s="176">
         <f t="shared" si="7"/>
-        <v>0.65133742563290298</v>
-      </c>
-      <c r="T27" s="176">
+        <v>21.740151421407262</v>
+      </c>
+      <c r="Y27" s="176">
         <f t="shared" si="8"/>
-        <v>0.79756828157574133</v>
-      </c>
-      <c r="U27" s="173">
+        <v>25.046691048067956</v>
+      </c>
+      <c r="Z27" s="178">
+        <f t="shared" si="16"/>
+        <v>0.15209367968820975</v>
+      </c>
+      <c r="AA27" s="173">
         <f t="shared" si="9"/>
-        <v>0.22450860366383241</v>
-      </c>
-      <c r="V27" s="176">
-        <f>NPV($G$2,S27:S62)*(1+$G$2)</f>
-        <v>6.8797989968641717</v>
-      </c>
-      <c r="W27" s="176">
-        <f>NPV($G$2,T27:T62)*(1+$G$2)</f>
-        <v>8.6518859282822049</v>
-      </c>
-      <c r="X27" s="176">
-        <f>O27-V27</f>
-        <v>21.740151421407262</v>
-      </c>
-      <c r="Y27" s="176">
-        <f>P27-W27</f>
-        <v>25.046691048067956</v>
-      </c>
-      <c r="Z27" s="193">
+        <v>0.24038472800679619</v>
+      </c>
+      <c r="AB27" s="173">
         <f t="shared" si="10"/>
-        <v>0.15209367968820975</v>
-      </c>
-      <c r="AA27" s="173">
-        <f>V27/O27</f>
-        <v>0.24038472800679619</v>
-      </c>
-      <c r="AB27" s="173">
-        <f>W27/P27</f>
         <v>0.25674336142900467</v>
       </c>
     </row>
@@ -12442,15 +12442,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F28" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.4517483763168206</v>
       </c>
       <c r="G28" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.7377620340814541</v>
       </c>
       <c r="I28" s="176">
@@ -12465,7 +12465,7 @@
         <v>0.999</v>
       </c>
       <c r="L28" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97725123782145173</v>
       </c>
       <c r="M28" s="177">
@@ -12487,43 +12487,43 @@
       <c r="Q28" s="176"/>
       <c r="R28" s="176"/>
       <c r="S28" s="176">
+        <f t="shared" si="13"/>
+        <v>0.67413423553005447</v>
+      </c>
+      <c r="T28" s="176">
+        <f t="shared" si="14"/>
+        <v>0.829471012838771</v>
+      </c>
+      <c r="U28" s="173">
+        <f t="shared" si="15"/>
+        <v>0.23042410416462422</v>
+      </c>
+      <c r="V28" s="176">
+        <f t="shared" si="5"/>
+        <v>6.6835943987586797</v>
+      </c>
+      <c r="W28" s="176">
+        <f t="shared" si="6"/>
+        <v>8.4282567740433727</v>
+      </c>
+      <c r="X28" s="176">
         <f t="shared" si="7"/>
-        <v>0.67413423553005447</v>
-      </c>
-      <c r="T28" s="176">
+        <v>24.02770374777484</v>
+      </c>
+      <c r="Y28" s="176">
         <f t="shared" si="8"/>
-        <v>0.829471012838771</v>
-      </c>
-      <c r="U28" s="173">
+        <v>27.73277878015821</v>
+      </c>
+      <c r="Z28" s="178">
+        <f t="shared" si="16"/>
+        <v>0.15420012962023022</v>
+      </c>
+      <c r="AA28" s="173">
         <f t="shared" si="9"/>
-        <v>0.23042410416462422</v>
-      </c>
-      <c r="V28" s="176">
-        <f>NPV($G$2,S28:S63)*(1+$G$2)</f>
-        <v>6.6835943987586797</v>
-      </c>
-      <c r="W28" s="176">
-        <f>NPV($G$2,T28:T63)*(1+$G$2)</f>
-        <v>8.4282567740433727</v>
-      </c>
-      <c r="X28" s="176">
-        <f>O28-V28</f>
-        <v>24.02770374777484</v>
-      </c>
-      <c r="Y28" s="176">
-        <f>P28-W28</f>
-        <v>27.73277878015821</v>
-      </c>
-      <c r="Z28" s="193">
+        <v>0.21762656748891215</v>
+      </c>
+      <c r="AB28" s="173">
         <f t="shared" si="10"/>
-        <v>0.15420012962023022</v>
-      </c>
-      <c r="AA28" s="173">
-        <f>V28/O28</f>
-        <v>0.21762656748891215</v>
-      </c>
-      <c r="AB28" s="173">
-        <f>W28/P28</f>
         <v>0.23307564744406459</v>
       </c>
     </row>
@@ -12541,15 +12541,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F29" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.5375595694879092</v>
       </c>
       <c r="G29" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.8472725154447125</v>
       </c>
       <c r="I29" s="176">
@@ -12564,7 +12564,7 @@
         <v>0.999</v>
       </c>
       <c r="L29" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97627398658363029</v>
       </c>
       <c r="M29" s="177">
@@ -12586,43 +12586,43 @@
       <c r="Q29" s="176"/>
       <c r="R29" s="176"/>
       <c r="S29" s="176">
+        <f t="shared" si="13"/>
+        <v>0.69772893377360634</v>
+      </c>
+      <c r="T29" s="176">
+        <f t="shared" si="14"/>
+        <v>0.86264985335232192</v>
+      </c>
+      <c r="U29" s="173">
+        <f t="shared" si="15"/>
+        <v>0.23636818196252096</v>
+      </c>
+      <c r="V29" s="176">
+        <f t="shared" si="5"/>
+        <v>6.4485898848659531</v>
+      </c>
+      <c r="W29" s="176">
+        <f t="shared" si="6"/>
+        <v>8.1540523883997338</v>
+      </c>
+      <c r="X29" s="176">
         <f t="shared" si="7"/>
-        <v>0.69772893377360634</v>
-      </c>
-      <c r="T29" s="176">
+        <v>26.506877195298138</v>
+      </c>
+      <c r="Y29" s="176">
         <f t="shared" si="8"/>
-        <v>0.86264985335232192</v>
-      </c>
-      <c r="U29" s="173">
+        <v>30.649381159252016</v>
+      </c>
+      <c r="Z29" s="178">
+        <f t="shared" si="16"/>
+        <v>0.15628034692403103</v>
+      </c>
+      <c r="AA29" s="173">
         <f t="shared" si="9"/>
-        <v>0.23636818196252096</v>
-      </c>
-      <c r="V29" s="176">
-        <f>NPV($G$2,S29:S64)*(1+$G$2)</f>
-        <v>6.4485898848659531</v>
-      </c>
-      <c r="W29" s="176">
-        <f>NPV($G$2,T29:T64)*(1+$G$2)</f>
-        <v>8.1540523883997338</v>
-      </c>
-      <c r="X29" s="176">
-        <f>O29-V29</f>
-        <v>26.506877195298138</v>
-      </c>
-      <c r="Y29" s="176">
-        <f>P29-W29</f>
-        <v>30.649381159252016</v>
-      </c>
-      <c r="Z29" s="193">
+        <v>0.19567587584723878</v>
+      </c>
+      <c r="AB29" s="173">
         <f t="shared" si="10"/>
-        <v>0.15628034692403103</v>
-      </c>
-      <c r="AA29" s="173">
-        <f>V29/O29</f>
-        <v>0.19567587584723878</v>
-      </c>
-      <c r="AB29" s="173">
-        <f>W29/P29</f>
         <v>0.21013739359910816</v>
       </c>
     </row>
@@ -12640,15 +12640,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F30" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.6263741544199859</v>
       </c>
       <c r="G30" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.9611634160625009</v>
       </c>
       <c r="I30" s="176">
@@ -12663,7 +12663,7 @@
         <v>0.999</v>
       </c>
       <c r="L30" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97529771259704667</v>
       </c>
       <c r="M30" s="177">
@@ -12685,43 +12685,43 @@
       <c r="Q30" s="176"/>
       <c r="R30" s="176"/>
       <c r="S30" s="176">
+        <f t="shared" si="13"/>
+        <v>0.72214944645568258</v>
+      </c>
+      <c r="T30" s="176">
+        <f t="shared" si="14"/>
+        <v>0.89715584748641475</v>
+      </c>
+      <c r="U30" s="173">
+        <f t="shared" si="15"/>
+        <v>0.2423409751120984</v>
+      </c>
+      <c r="V30" s="176">
+        <f t="shared" si="5"/>
+        <v>6.1710940336046001</v>
+      </c>
+      <c r="W30" s="176">
+        <f t="shared" si="6"/>
+        <v>7.8242077252961222</v>
+      </c>
+      <c r="X30" s="176">
         <f t="shared" si="7"/>
-        <v>0.72214944645568258</v>
-      </c>
-      <c r="T30" s="176">
+        <v>29.192530300665577</v>
+      </c>
+      <c r="Y30" s="176">
         <f t="shared" si="8"/>
-        <v>0.89715584748641475</v>
-      </c>
-      <c r="U30" s="173">
+        <v>33.814711957469314</v>
+      </c>
+      <c r="Z30" s="178">
+        <f t="shared" si="16"/>
+        <v>0.15833439613483424</v>
+      </c>
+      <c r="AA30" s="173">
         <f t="shared" si="9"/>
-        <v>0.2423409751120984</v>
-      </c>
-      <c r="V30" s="176">
-        <f>NPV($G$2,S30:S65)*(1+$G$2)</f>
-        <v>6.1710940336046001</v>
-      </c>
-      <c r="W30" s="176">
-        <f>NPV($G$2,T30:T65)*(1+$G$2)</f>
-        <v>7.8242077252961222</v>
-      </c>
-      <c r="X30" s="176">
-        <f>O30-V30</f>
-        <v>29.192530300665577</v>
-      </c>
-      <c r="Y30" s="176">
-        <f>P30-W30</f>
-        <v>33.814711957469314</v>
-      </c>
-      <c r="Z30" s="193">
+        <v>0.17450400375462413</v>
+      </c>
+      <c r="AB30" s="173">
         <f t="shared" si="10"/>
-        <v>0.15833439613483424</v>
-      </c>
-      <c r="AA30" s="173">
-        <f>V30/O30</f>
-        <v>0.17450400375462413</v>
-      </c>
-      <c r="AB30" s="173">
-        <f>W30/P30</f>
         <v>0.1879061172793732</v>
       </c>
     </row>
@@ -12739,15 +12739,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F31" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.7182972498246851</v>
       </c>
       <c r="G31" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.0796099527050012</v>
       </c>
       <c r="I31" s="176">
@@ -12762,7 +12762,7 @@
         <v>0.999</v>
       </c>
       <c r="L31" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97432241488444959</v>
       </c>
       <c r="M31" s="177">
@@ -12784,43 +12784,43 @@
       <c r="Q31" s="176"/>
       <c r="R31" s="176"/>
       <c r="S31" s="176">
+        <f t="shared" si="13"/>
+        <v>0.74742467708163141</v>
+      </c>
+      <c r="T31" s="176">
+        <f t="shared" si="14"/>
+        <v>0.93304208138587141</v>
+      </c>
+      <c r="U31" s="173">
+        <f t="shared" si="15"/>
+        <v>0.24834262233486237</v>
+      </c>
+      <c r="V31" s="176">
+        <f t="shared" si="5"/>
+        <v>5.8471157131367759</v>
+      </c>
+      <c r="W31" s="176">
+        <f t="shared" si="6"/>
+        <v>7.433232845857864</v>
+      </c>
+      <c r="X31" s="176">
         <f t="shared" si="7"/>
-        <v>0.74742467708163141</v>
-      </c>
-      <c r="T31" s="176">
+        <v>32.100637326240246</v>
+      </c>
+      <c r="Y31" s="176">
         <f t="shared" si="8"/>
-        <v>0.93304208138587141</v>
-      </c>
-      <c r="U31" s="173">
+        <v>37.248370657570128</v>
+      </c>
+      <c r="Z31" s="178">
+        <f t="shared" si="16"/>
+        <v>0.16036234044244146</v>
+      </c>
+      <c r="AA31" s="173">
         <f t="shared" si="9"/>
-        <v>0.24834262233486237</v>
-      </c>
-      <c r="V31" s="176">
-        <f>NPV($G$2,S31:S66)*(1+$G$2)</f>
-        <v>5.8471157131367759</v>
-      </c>
-      <c r="W31" s="176">
-        <f>NPV($G$2,T31:T66)*(1+$G$2)</f>
-        <v>7.433232845857864</v>
-      </c>
-      <c r="X31" s="176">
-        <f>O31-V31</f>
-        <v>32.100637326240246</v>
-      </c>
-      <c r="Y31" s="176">
-        <f>P31-W31</f>
-        <v>37.248370657570128</v>
-      </c>
-      <c r="Z31" s="193">
+        <v>0.1540833183738029</v>
+      </c>
+      <c r="AB31" s="173">
         <f t="shared" si="10"/>
-        <v>0.16036234044244146</v>
-      </c>
-      <c r="AA31" s="173">
-        <f>V31/O31</f>
-        <v>0.1540833183738029</v>
-      </c>
-      <c r="AB31" s="173">
-        <f>W31/P31</f>
         <v>0.16636002880441797</v>
       </c>
     </row>
@@ -12838,15 +12838,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F32" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.813437653568549</v>
       </c>
       <c r="G32" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2027943508132015</v>
       </c>
       <c r="I32" s="176">
@@ -12861,7 +12861,7 @@
         <v>0.999</v>
       </c>
       <c r="L32" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97334809246956511</v>
       </c>
       <c r="M32" s="177">
@@ -12883,43 +12883,43 @@
       <c r="Q32" s="176"/>
       <c r="R32" s="176"/>
       <c r="S32" s="176">
+        <f t="shared" si="13"/>
+        <v>0.77358454077948846</v>
+      </c>
+      <c r="T32" s="176">
+        <f t="shared" si="14"/>
+        <v>0.97036376464130636</v>
+      </c>
+      <c r="U32" s="173">
+        <f t="shared" si="15"/>
+        <v>0.25437326302247043</v>
+      </c>
+      <c r="V32" s="176">
+        <f t="shared" si="5"/>
+        <v>5.4723411317828967</v>
+      </c>
+      <c r="W32" s="176">
+        <f t="shared" si="6"/>
+        <v>6.9751796791931682</v>
+      </c>
+      <c r="X32" s="176">
         <f t="shared" si="7"/>
-        <v>0.77358454077948846</v>
-      </c>
-      <c r="T32" s="176">
+        <v>35.248370838399453</v>
+      </c>
+      <c r="Y32" s="176">
         <f t="shared" si="8"/>
-        <v>0.97036376464130636</v>
-      </c>
-      <c r="U32" s="173">
+        <v>40.971445902062896</v>
+      </c>
+      <c r="Z32" s="178">
+        <f t="shared" si="16"/>
+        <v>0.16236424343983424</v>
+      </c>
+      <c r="AA32" s="173">
         <f t="shared" si="9"/>
-        <v>0.25437326302247043</v>
-      </c>
-      <c r="V32" s="176">
-        <f>NPV($G$2,S32:S67)*(1+$G$2)</f>
-        <v>5.4723411317828967</v>
-      </c>
-      <c r="W32" s="176">
-        <f>NPV($G$2,T32:T67)*(1+$G$2)</f>
-        <v>6.9751796791931682</v>
-      </c>
-      <c r="X32" s="176">
-        <f>O32-V32</f>
-        <v>35.248370838399453</v>
-      </c>
-      <c r="Y32" s="176">
-        <f>P32-W32</f>
-        <v>40.971445902062896</v>
-      </c>
-      <c r="Z32" s="193">
+        <v>0.13438716729191783</v>
+      </c>
+      <c r="AB32" s="173">
         <f t="shared" si="10"/>
-        <v>0.16236424343983424</v>
-      </c>
-      <c r="AA32" s="173">
-        <f>V32/O32</f>
-        <v>0.13438716729191783</v>
-      </c>
-      <c r="AB32" s="173">
-        <f>W32/P32</f>
         <v>0.14547801007126554</v>
       </c>
     </row>
@@ -12937,15 +12937,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F33" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.9119079714434482</v>
       </c>
       <c r="G33" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.3309061248457299</v>
       </c>
       <c r="I33" s="176">
@@ -12960,7 +12960,7 @@
         <v>0.999</v>
       </c>
       <c r="L33" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97237474437709559</v>
       </c>
       <c r="M33" s="177">
@@ -12982,43 +12982,43 @@
       <c r="Q33" s="176"/>
       <c r="R33" s="176"/>
       <c r="S33" s="176">
+        <f t="shared" si="13"/>
+        <v>0.80065999970677049</v>
+      </c>
+      <c r="T33" s="176">
+        <f t="shared" si="14"/>
+        <v>1.0091783152269587</v>
+      </c>
+      <c r="U33" s="173">
+        <f t="shared" si="15"/>
+        <v>0.26043303723997058</v>
+      </c>
+      <c r="V33" s="176">
+        <f t="shared" si="5"/>
+        <v>5.0421091747303866</v>
+      </c>
+      <c r="W33" s="176">
+        <f t="shared" si="6"/>
+        <v>6.4436062666662632</v>
+      </c>
+      <c r="X33" s="176">
         <f t="shared" si="7"/>
-        <v>0.80065999970677049</v>
-      </c>
-      <c r="T33" s="176">
+        <v>38.654190356836672</v>
+      </c>
+      <c r="Y33" s="176">
         <f t="shared" si="8"/>
-        <v>1.0091783152269587</v>
-      </c>
-      <c r="U33" s="173">
+        <v>45.006626589296218</v>
+      </c>
+      <c r="Z33" s="178">
+        <f t="shared" si="16"/>
+        <v>0.16434017046578764</v>
+      </c>
+      <c r="AA33" s="173">
         <f t="shared" si="9"/>
-        <v>0.26043303723997058</v>
-      </c>
-      <c r="V33" s="176">
-        <f>NPV($G$2,S33:S68)*(1+$G$2)</f>
-        <v>5.0421091747303866</v>
-      </c>
-      <c r="W33" s="176">
-        <f>NPV($G$2,T33:T68)*(1+$G$2)</f>
-        <v>6.4436062666662632</v>
-      </c>
-      <c r="X33" s="176">
-        <f>O33-V33</f>
-        <v>38.654190356836672</v>
-      </c>
-      <c r="Y33" s="176">
-        <f>P33-W33</f>
-        <v>45.006626589296218</v>
-      </c>
-      <c r="Z33" s="193">
+        <v>0.11538984373465924</v>
+      </c>
+      <c r="AB33" s="173">
         <f t="shared" si="10"/>
-        <v>0.16434017046578764</v>
-      </c>
-      <c r="AA33" s="173">
-        <f>V33/O33</f>
-        <v>0.11538984373465924</v>
-      </c>
-      <c r="AB33" s="173">
-        <f>W33/P33</f>
         <v>0.12523959385578415</v>
       </c>
     </row>
@@ -13036,15 +13036,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F34" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.0138247504439688</v>
       </c>
       <c r="G34" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.4641423698395593</v>
       </c>
       <c r="I34" s="176">
@@ -13059,7 +13059,7 @@
         <v>0.999</v>
       </c>
       <c r="L34" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97140236963271853</v>
       </c>
       <c r="M34" s="177">
@@ -13081,43 +13081,43 @@
       <c r="Q34" s="176"/>
       <c r="R34" s="176"/>
       <c r="S34" s="176">
+        <f t="shared" si="13"/>
+        <v>0.82868309969650744</v>
+      </c>
+      <c r="T34" s="176">
+        <f t="shared" si="14"/>
+        <v>1.0495454478360371</v>
+      </c>
+      <c r="U34" s="173">
+        <f t="shared" si="15"/>
+        <v>0.26652208572905267</v>
+      </c>
+      <c r="V34" s="176">
+        <f t="shared" si="5"/>
+        <v>4.5513849005258411</v>
+      </c>
+      <c r="W34" s="176">
+        <f t="shared" si="6"/>
+        <v>5.8315383022451801</v>
+      </c>
+      <c r="X34" s="176">
         <f t="shared" si="7"/>
-        <v>0.82868309969650744</v>
-      </c>
-      <c r="T34" s="176">
+        <v>42.337937519734311</v>
+      </c>
+      <c r="Y34" s="176">
         <f t="shared" si="8"/>
-        <v>1.0495454478360371</v>
-      </c>
-      <c r="U34" s="173">
+        <v>49.378321178827669</v>
+      </c>
+      <c r="Z34" s="178">
+        <f t="shared" si="16"/>
+        <v>0.16629018963929765</v>
+      </c>
+      <c r="AA34" s="173">
         <f t="shared" si="9"/>
-        <v>0.26652208572905267</v>
-      </c>
-      <c r="V34" s="176">
-        <f>NPV($G$2,S34:S69)*(1+$G$2)</f>
-        <v>4.5513849005258411</v>
-      </c>
-      <c r="W34" s="176">
-        <f>NPV($G$2,T34:T69)*(1+$G$2)</f>
-        <v>5.8315383022451801</v>
-      </c>
-      <c r="X34" s="176">
-        <f>O34-V34</f>
-        <v>42.337937519734311</v>
-      </c>
-      <c r="Y34" s="176">
-        <f>P34-W34</f>
-        <v>49.378321178827669</v>
-      </c>
-      <c r="Z34" s="193">
+        <v>9.706655301462104E-2</v>
+      </c>
+      <c r="AB34" s="173">
         <f t="shared" si="10"/>
-        <v>0.16629018963929765</v>
-      </c>
-      <c r="AA34" s="173">
-        <f>V34/O34</f>
-        <v>9.706655301462104E-2</v>
-      </c>
-      <c r="AB34" s="173">
-        <f>W34/P34</f>
         <v>0.10562494375201878</v>
       </c>
     </row>
@@ -13135,15 +13135,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F35" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.1193086167095077</v>
       </c>
       <c r="G35" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.6027080646331417</v>
       </c>
       <c r="I35" s="176">
@@ -13158,7 +13158,7 @@
         <v>0.999</v>
       </c>
       <c r="L35" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.97043096726308586</v>
       </c>
       <c r="M35" s="177">
@@ -13180,43 +13180,43 @@
       <c r="Q35" s="176"/>
       <c r="R35" s="176"/>
       <c r="S35" s="176">
+        <f t="shared" si="13"/>
+        <v>0.85768700818588528</v>
+      </c>
+      <c r="T35" s="176">
+        <f t="shared" si="14"/>
+        <v>1.0915272657494786</v>
+      </c>
+      <c r="U35" s="173">
+        <f t="shared" si="15"/>
+        <v>0.27264054991131847</v>
+      </c>
+      <c r="V35" s="176">
+        <f t="shared" si="5"/>
+        <v>3.9947310615505969</v>
+      </c>
+      <c r="W35" s="176">
+        <f t="shared" si="6"/>
+        <v>5.1314277676942961</v>
+      </c>
+      <c r="X35" s="176">
         <f t="shared" si="7"/>
-        <v>0.85768700818588528</v>
-      </c>
-      <c r="T35" s="176">
+        <v>46.320938242272106</v>
+      </c>
+      <c r="Y35" s="176">
         <f t="shared" si="8"/>
-        <v>1.0915272657494786</v>
-      </c>
-      <c r="U35" s="173">
+        <v>54.112785809593092</v>
+      </c>
+      <c r="Z35" s="178">
+        <f t="shared" si="16"/>
+        <v>0.16821437265729244</v>
+      </c>
+      <c r="AA35" s="173">
         <f t="shared" si="9"/>
-        <v>0.27264054991131847</v>
-      </c>
-      <c r="V35" s="176">
-        <f>NPV($G$2,S35:S70)*(1+$G$2)</f>
-        <v>3.9947310615505969</v>
-      </c>
-      <c r="W35" s="176">
-        <f>NPV($G$2,T35:T70)*(1+$G$2)</f>
-        <v>5.1314277676942961</v>
-      </c>
-      <c r="X35" s="176">
-        <f>O35-V35</f>
-        <v>46.320938242272106</v>
-      </c>
-      <c r="Y35" s="176">
-        <f>P35-W35</f>
-        <v>54.112785809593092</v>
-      </c>
-      <c r="Z35" s="193">
+        <v>7.9393380170083516E-2</v>
+      </c>
+      <c r="AB35" s="173">
         <f t="shared" si="10"/>
-        <v>0.16821437265729244</v>
-      </c>
-      <c r="AA35" s="173">
-        <f>V35/O35</f>
-        <v>7.9393380170083516E-2</v>
-      </c>
-      <c r="AB35" s="173">
-        <f>W35/P35</f>
         <v>8.6614834729809714E-2</v>
       </c>
     </row>
@@ -13234,15 +13234,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F36" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.22848441829434</v>
       </c>
       <c r="G36" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.7468163872184674</v>
       </c>
       <c r="I36" s="176">
@@ -13257,7 +13257,7 @@
         <v>0.999</v>
       </c>
       <c r="L36" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.96946053629582274</v>
       </c>
       <c r="M36" s="177">
@@ -13279,43 +13279,43 @@
       <c r="Q36" s="176"/>
       <c r="R36" s="176"/>
       <c r="S36" s="176">
+        <f t="shared" si="13"/>
+        <v>0.88770605347239107</v>
+      </c>
+      <c r="T36" s="176">
+        <f t="shared" si="14"/>
+        <v>1.1351883563794578</v>
+      </c>
+      <c r="U36" s="173">
+        <f t="shared" si="15"/>
+        <v>0.27878857189156681</v>
+      </c>
+      <c r="V36" s="176">
+        <f t="shared" si="5"/>
+        <v>3.3662775027096812</v>
+      </c>
+      <c r="W36" s="176">
+        <f t="shared" si="6"/>
+        <v>4.3351084465313763</v>
+      </c>
+      <c r="X36" s="176">
         <f t="shared" si="7"/>
-        <v>0.88770605347239107</v>
-      </c>
-      <c r="T36" s="176">
+        <v>50.626112380871838</v>
+      </c>
+      <c r="Y36" s="176">
         <f t="shared" si="8"/>
-        <v>1.1351883563794578</v>
-      </c>
-      <c r="U36" s="173">
+        <v>59.238261878645886</v>
+      </c>
+      <c r="Z36" s="178">
+        <f t="shared" si="16"/>
+        <v>0.17011279540848157</v>
+      </c>
+      <c r="AA36" s="173">
         <f t="shared" si="9"/>
-        <v>0.27878857189156681</v>
-      </c>
-      <c r="V36" s="176">
-        <f>NPV($G$2,S36:S71)*(1+$G$2)</f>
-        <v>3.3662775027096812</v>
-      </c>
-      <c r="W36" s="176">
-        <f>NPV($G$2,T36:T71)*(1+$G$2)</f>
-        <v>4.3351084465313763</v>
-      </c>
-      <c r="X36" s="176">
-        <f>O36-V36</f>
-        <v>50.626112380871838</v>
-      </c>
-      <c r="Y36" s="176">
-        <f>P36-W36</f>
-        <v>59.238261878645886</v>
-      </c>
-      <c r="Z36" s="193">
+        <v>6.2347258751984387E-2</v>
+      </c>
+      <c r="AB36" s="173">
         <f t="shared" si="10"/>
-        <v>0.17011279540848157</v>
-      </c>
-      <c r="AA36" s="173">
-        <f>V36/O36</f>
-        <v>6.2347258751984387E-2</v>
-      </c>
-      <c r="AB36" s="173">
-        <f>W36/P36</f>
         <v>6.8190634291643376E-2</v>
       </c>
     </row>
@@ -13333,15 +13333,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F37" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.3414813729346418</v>
       </c>
       <c r="G37" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.8966890427072061</v>
       </c>
       <c r="I37" s="176">
@@ -13356,7 +13356,7 @@
         <v>0.999</v>
       </c>
       <c r="L37" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.96849107575952686</v>
       </c>
       <c r="M37" s="177">
@@ -13378,43 +13378,43 @@
       <c r="Q37" s="176"/>
       <c r="R37" s="176"/>
       <c r="S37" s="176">
+        <f t="shared" si="13"/>
+        <v>0.9187757653439248</v>
+      </c>
+      <c r="T37" s="176">
+        <f t="shared" si="14"/>
+        <v>1.1805958906346361</v>
+      </c>
+      <c r="U37" s="173">
+        <f t="shared" si="15"/>
+        <v>0.28496629446109112</v>
+      </c>
+      <c r="V37" s="176">
+        <f t="shared" si="5"/>
+        <v>2.6596882818642387</v>
+      </c>
+      <c r="W37" s="176">
+        <f t="shared" si="6"/>
+        <v>3.4337480847275832</v>
+      </c>
+      <c r="X37" s="176">
         <f t="shared" si="7"/>
-        <v>0.9187757653439248</v>
-      </c>
-      <c r="T37" s="176">
+        <v>55.278091453070097</v>
+      </c>
+      <c r="Y37" s="176">
         <f t="shared" si="8"/>
-        <v>1.1805958906346361</v>
-      </c>
-      <c r="U37" s="173">
+        <v>64.785123775722909</v>
+      </c>
+      <c r="Z37" s="178">
+        <f t="shared" si="16"/>
+        <v>0.17198553844291231</v>
+      </c>
+      <c r="AA37" s="173">
         <f t="shared" si="9"/>
-        <v>0.28496629446109112</v>
-      </c>
-      <c r="V37" s="176">
-        <f>NPV($G$2,S37:S72)*(1+$G$2)</f>
-        <v>2.6596882818642387</v>
-      </c>
-      <c r="W37" s="176">
-        <f>NPV($G$2,T37:T72)*(1+$G$2)</f>
-        <v>3.4337480847275832</v>
-      </c>
-      <c r="X37" s="176">
-        <f>O37-V37</f>
-        <v>55.278091453070097</v>
-      </c>
-      <c r="Y37" s="176">
-        <f>P37-W37</f>
-        <v>64.785123775722909</v>
-      </c>
-      <c r="Z37" s="193">
+        <v>4.5905940718341767E-2</v>
+      </c>
+      <c r="AB37" s="173">
         <f t="shared" si="10"/>
-        <v>0.17198553844291231</v>
-      </c>
-      <c r="AA37" s="173">
-        <f>V37/O37</f>
-        <v>4.5905940718341767E-2</v>
-      </c>
-      <c r="AB37" s="173">
-        <f>W37/P37</f>
         <v>5.0334284210265277E-2</v>
       </c>
     </row>
@@ -13432,15 +13432,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F38" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.4584332209873541</v>
       </c>
       <c r="G38" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.0525566044154946</v>
       </c>
       <c r="I38" s="176">
@@ -13455,7 +13455,7 @@
         <v>0.999</v>
       </c>
       <c r="L38" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.96752258468376728</v>
       </c>
       <c r="M38" s="177">
@@ -13477,43 +13477,43 @@
       <c r="Q38" s="176"/>
       <c r="R38" s="176"/>
       <c r="S38" s="176">
+        <f t="shared" si="13"/>
+        <v>0.95093291713096206</v>
+      </c>
+      <c r="T38" s="176">
+        <f t="shared" si="14"/>
+        <v>1.2278197262600217</v>
+      </c>
+      <c r="U38" s="173">
+        <f t="shared" si="15"/>
+        <v>0.29117386110100019</v>
+      </c>
+      <c r="V38" s="176">
+        <f t="shared" si="5"/>
+        <v>1.8681263440538305</v>
+      </c>
+      <c r="W38" s="176">
+        <f t="shared" si="6"/>
+        <v>2.417796949016656</v>
+      </c>
+      <c r="X38" s="176">
         <f t="shared" si="7"/>
-        <v>0.95093291713096206</v>
-      </c>
-      <c r="T38" s="176">
+        <v>60.303345003142972</v>
+      </c>
+      <c r="Y38" s="176">
         <f t="shared" si="8"/>
-        <v>1.2278197262600217</v>
-      </c>
-      <c r="U38" s="173">
+        <v>70.786037519855128</v>
+      </c>
+      <c r="Z38" s="178">
+        <f t="shared" si="16"/>
+        <v>0.17383268732714252</v>
+      </c>
+      <c r="AA38" s="173">
         <f t="shared" si="9"/>
-        <v>0.29117386110100019</v>
-      </c>
-      <c r="V38" s="176">
-        <f>NPV($G$2,S38:S73)*(1+$G$2)</f>
-        <v>1.8681263440538305</v>
-      </c>
-      <c r="W38" s="176">
-        <f>NPV($G$2,T38:T73)*(1+$G$2)</f>
-        <v>2.417796949016656</v>
-      </c>
-      <c r="X38" s="176">
-        <f>O38-V38</f>
-        <v>60.303345003142972</v>
-      </c>
-      <c r="Y38" s="176">
-        <f>P38-W38</f>
-        <v>70.786037519855128</v>
-      </c>
-      <c r="Z38" s="193">
+        <v>3.0047967396834994E-2</v>
+      </c>
+      <c r="AB38" s="173">
         <f t="shared" si="10"/>
-        <v>0.17383268732714252</v>
-      </c>
-      <c r="AA38" s="173">
-        <f>V38/O38</f>
-        <v>3.0047967396834994E-2</v>
-      </c>
-      <c r="AB38" s="173">
-        <f>W38/P38</f>
         <v>3.3028282829156541E-2</v>
       </c>
     </row>
@@ -13531,15 +13531,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F39" s="176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.5794783837219111</v>
       </c>
       <c r="G39" s="176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.2146588685921147</v>
       </c>
       <c r="I39" s="176">
@@ -13554,7 +13554,7 @@
         <v>0.999</v>
       </c>
       <c r="L39" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.96655506209908348</v>
       </c>
       <c r="M39" s="177">
@@ -13576,43 +13576,43 @@
       <c r="Q39" s="176"/>
       <c r="R39" s="176"/>
       <c r="S39" s="176">
+        <f t="shared" si="13"/>
+        <v>0.98421556923054565</v>
+      </c>
+      <c r="T39" s="176">
+        <f t="shared" si="14"/>
+        <v>1.2769325153104225</v>
+      </c>
+      <c r="U39" s="173">
+        <f t="shared" si="15"/>
+        <v>0.2974114159855461</v>
+      </c>
+      <c r="V39" s="176">
+        <f t="shared" si="5"/>
+        <v>0.98421556923054565</v>
+      </c>
+      <c r="W39" s="176">
+        <f t="shared" si="6"/>
+        <v>1.2769325153104225</v>
+      </c>
+      <c r="X39" s="176">
         <f t="shared" si="7"/>
-        <v>0.98421556923054565</v>
-      </c>
-      <c r="T39" s="176">
+        <v>65.730316246780447</v>
+      </c>
+      <c r="Y39" s="176">
         <f t="shared" si="8"/>
-        <v>1.2769325153104225</v>
-      </c>
-      <c r="U39" s="173">
+        <v>77.276131098934385</v>
+      </c>
+      <c r="Z39" s="178">
+        <f t="shared" si="16"/>
+        <v>0.17565433290790633</v>
+      </c>
+      <c r="AA39" s="173">
         <f t="shared" si="9"/>
-        <v>0.2974114159855461</v>
-      </c>
-      <c r="V39" s="176">
-        <f>NPV($G$2,S39:S74)*(1+$G$2)</f>
-        <v>0.98421556923054565</v>
-      </c>
-      <c r="W39" s="176">
-        <f>NPV($G$2,T39:T74)*(1+$G$2)</f>
-        <v>1.2769325153104225</v>
-      </c>
-      <c r="X39" s="176">
-        <f>O39-V39</f>
-        <v>65.730316246780447</v>
-      </c>
-      <c r="Y39" s="176">
-        <f>P39-W39</f>
-        <v>77.276131098934385</v>
-      </c>
-      <c r="Z39" s="193">
+        <v>1.4752641477644924E-2</v>
+      </c>
+      <c r="AB39" s="173">
         <f t="shared" si="10"/>
-        <v>0.17565433290790633</v>
-      </c>
-      <c r="AA39" s="173">
-        <f>V39/O39</f>
-        <v>1.4752641477644924E-2</v>
-      </c>
-      <c r="AB39" s="173">
-        <f>W39/P39</f>
         <v>1.625566790852526E-2</v>
       </c>
     </row>
@@ -13630,7 +13630,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="F40" s="176">
@@ -13651,7 +13651,7 @@
         <v>0.999</v>
       </c>
       <c r="L40" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.9655885070369844</v>
       </c>
       <c r="M40" s="177">
@@ -13672,40 +13672,40 @@
       <c r="Q40" s="176"/>
       <c r="R40" s="176"/>
       <c r="S40" s="176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T40" s="176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U40" s="176"/>
       <c r="V40" s="176">
-        <f>NPV($G$2,S40:S75)*(1+$G$2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W40" s="176">
-        <f>NPV($G$2,T40:T75)*(1+$G$2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X40" s="176">
-        <f>O40-V40</f>
+        <f t="shared" si="7"/>
         <v>71.589567674438229</v>
       </c>
       <c r="Y40" s="176">
-        <f>P40-W40</f>
+        <f t="shared" si="8"/>
         <v>84.29317737184229</v>
       </c>
-      <c r="Z40" s="193">
+      <c r="Z40" s="178">
+        <f t="shared" si="16"/>
+        <v>0.17745057150191479</v>
+      </c>
+      <c r="AA40" s="173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="173">
         <f t="shared" si="10"/>
-        <v>0.17745057150191479</v>
-      </c>
-      <c r="AA40" s="173">
-        <f>V40/O40</f>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="173">
-        <f>W40/P40</f>
         <v>0</v>
       </c>
     </row>
@@ -13718,8 +13718,8 @@
         <f>G39*C1</f>
         <v>84.29317737184229</v>
       </c>
-      <c r="Z41" s="193" t="e">
-        <f t="shared" si="10"/>
+      <c r="Z41" s="178" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -14154,7 +14154,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14163,7 +14163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14310,7 +14310,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14319,7 +14319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1"/>
   <sheetViews>
@@ -14338,7 +14338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
@@ -14365,14 +14365,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="181" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -14410,14 +14410,14 @@
       <c r="A6" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="185" t="s">
         <v>148</v>
       </c>
     </row>
@@ -14425,12 +14425,12 @@
       <c r="A7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="182">
+      <c r="B7" s="183">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -14445,12 +14445,12 @@
       <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -14552,7 +14552,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14561,7 +14561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -15853,7 +15853,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15861,7 +15861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -15889,10 +15889,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="180"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -15907,10 +15907,10 @@
       <c r="A6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="187"/>
+      <c r="C6" s="188"/>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
@@ -15927,17 +15927,17 @@
       <c r="A8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="186"/>
+      <c r="C9" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15947,7 +15947,7 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15956,7 +15956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -15995,32 +15995,32 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="190"/>
+      <c r="D5" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189" t="s">
+      <c r="E5" s="190"/>
+      <c r="F5" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189" t="s">
+      <c r="G5" s="190"/>
+      <c r="H5" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="189"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
-      <c r="B6" s="190" t="s">
+      <c r="A6" s="189"/>
+      <c r="B6" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="190"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="118" t="s">
         <v>166</v>
       </c>
@@ -16285,14 +16285,14 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16614,14 +16614,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -16647,10 +16647,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="180"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -16665,17 +16665,17 @@
       <c r="A6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="192"/>
+      <c r="C6" s="193"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="185"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -16688,10 +16688,10 @@
       <c r="A9" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="178"/>
+      <c r="C9" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16701,7 +16701,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16709,7 +16709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16798,14 +16798,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -17119,14 +17119,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -17160,17 +17160,17 @@
       <c r="A4" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="185"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="184"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17178,7 +17178,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17186,7 +17186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17542,7 +17542,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17550,7 +17550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -18049,7 +18049,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18057,7 +18057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
@@ -18393,7 +18393,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18402,7 +18402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="B2:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18604,7 +18604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18739,7 +18739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A2:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21440,7 +21440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21454,7 +21454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
@@ -21501,7 +21501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -21565,7 +21565,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21574,7 +21574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -21675,7 +21675,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21684,7 +21684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -21766,7 +21766,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21775,7 +21775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -22036,14 +22036,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24096,7 +24096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_NCTSERS\Data_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_NCTSERS\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ADB6FED-15F6-4F5F-9307-DA9EDDBDEE9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -41,7 +42,7 @@
     <sheet name="GASBcashflow" sheetId="39" r:id="rId27"/>
     <sheet name="detective" sheetId="40" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -10012,7 +10013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
@@ -15866,7 +15867,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15960,8 +15961,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,7 +16297,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
